--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.015</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.842</v>
+        <v>23.223</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.13198373376675</v>
+        <v>23.22478294602281</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.13198791458539</v>
+        <v>25.3535743808997</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.13150766690873</v>
+        <v>20.80097874190158</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.13150772382604</v>
+        <v>21.1403768358288</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.13142024082052</v>
+        <v>20.68536547923194</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.13141943541178</v>
+        <v>24.07409252806318</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.13189702482724</v>
+        <v>25.24996308898923</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.13189365081271</v>
+        <v>28.40383497931723</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.13136766494149</v>
+        <v>34.37970320842205</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.13136774033191</v>
+        <v>33.38324613180894</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.13121587620271</v>
+        <v>24.0240882204003</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.1311846342089</v>
+        <v>27.79537890330796</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.13184070363596</v>
+        <v>24.21260171077181</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.13183137893336</v>
+        <v>27.5582271674178</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.13126745552922</v>
+        <v>32.83360170038063</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.1312855331894</v>
+        <v>31.82168473927041</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.13124963501432</v>
+        <v>22.3052510615524</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.13137791559613</v>
+        <v>26.38572542456241</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30.13219780239874</v>
+        <v>24.01826328601662</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.13219637259689</v>
+        <v>26.36262589202913</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.13182536335892</v>
+        <v>27.22913046718176</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.13182956081354</v>
+        <v>26.76593417736491</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.13177299164932</v>
+        <v>22.59384093914478</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.13177302710659</v>
+        <v>25.18164849761099</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.13082510169947</v>
+        <v>21.58134271131701</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.13082530625024</v>
+        <v>22.24750148239265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30.13144758128166</v>
+        <v>20.77317245730245</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.13143201228722</v>
+        <v>24.05066790825066</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.13089948063929</v>
+        <v>21.31756188486245</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.1309014770757</v>
+        <v>22.18920285866513</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.13039655195101</v>
+        <v>39.78953045411583</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.13039734604232</v>
+        <v>39.49984755719179</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.13105384911789</v>
+        <v>27.9375613998564</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.13105318590392</v>
+        <v>30.8556843170213</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.1298529893977</v>
+        <v>46.27622246572356</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.12985599139877</v>
+        <v>46.03077017030775</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.13055231236669</v>
+        <v>36.86448870930672</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.13054868255661</v>
+        <v>36.71631162749136</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>30.13114206461891</v>
+        <v>26.47101560552553</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.13113682306685</v>
+        <v>29.64404777789683</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.13025881604332</v>
+        <v>43.78746903425507</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>30.13024262415646</v>
+        <v>43.65688266089412</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.13111602285152</v>
+        <v>26.63168858900139</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.13111769430365</v>
+        <v>27.45224228215568</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.13160282593561</v>
+        <v>27.42182210691903</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.13158707686163</v>
+        <v>28.99247318445548</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.1308700425297</v>
+        <v>34.56143094453186</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.13087557975894</v>
+        <v>35.34293771691761</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.13203703135905</v>
+        <v>20.84180797836266</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.13200102276447</v>
+        <v>23.6336032664597</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.13160204730929</v>
+        <v>17.61579009656114</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.13114781995317</v>
+        <v>17.94683528431189</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.13084229992305</v>
+        <v>19.04317470243047</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.13084163561933</v>
+        <v>23.13470813777788</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.13157903938781</v>
+        <v>21.32297598998894</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.13158036626983</v>
+        <v>25.68564244142048</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.13090769728138</v>
+        <v>30.35860432511056</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30.13091113380262</v>
+        <v>29.16239782723466</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.13076211754568</v>
+        <v>19.23196387400108</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.13075129308327</v>
+        <v>24.71631512916209</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.13161896519101</v>
+        <v>20.26997915678589</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.13161744744678</v>
+        <v>24.81746647810643</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.13093341246039</v>
+        <v>28.7828289082466</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>30.13093741628321</v>
+        <v>27.5617070138179</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.1308145823716</v>
+        <v>17.5155561231032</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.13081024787853</v>
+        <v>23.29000263718524</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.13208413604555</v>
+        <v>20.40314027300362</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.13208567157709</v>
+        <v>23.71918000024263</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.13175844179647</v>
+        <v>22.67918077617938</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.13178573287347</v>
+        <v>22.15438784370727</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.1317002559132</v>
+        <v>19.5164651625432</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.13169557735397</v>
+        <v>23.11236539836824</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.12988077190413</v>
+        <v>20.55332214077542</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.12981936922335</v>
+        <v>21.31483660649951</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.13052406315372</v>
+        <v>19.63174135124325</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.13051204731705</v>
+        <v>23.43634249899599</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.12937908456481</v>
+        <v>20.8873850034385</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.12941431626884</v>
+        <v>21.95747782969807</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.12983843446711</v>
+        <v>36.60139572387726</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.12984621162625</v>
+        <v>36.07182431108683</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.130651074377</v>
+        <v>24.2027219356024</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.1306019670332</v>
+        <v>28.56220695310447</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.12946214174186</v>
+        <v>44.83316297740774</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.12945747078945</v>
+        <v>44.35603246943037</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.1304251492166</v>
+        <v>33.60356259188318</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.13047156433086</v>
+        <v>33.21266520313896</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.13126951773949</v>
+        <v>22.6693364593117</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.13122694846879</v>
+        <v>27.28714434526093</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.13055294205277</v>
+        <v>42.18599022870718</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.13042671348648</v>
+        <v>41.80935352144963</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.13063467208212</v>
+        <v>24.1619787174166</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.13064061559295</v>
+        <v>24.79769378405672</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.13124747169807</v>
+        <v>25.60114903841348</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.13122763072944</v>
+        <v>27.85533761414163</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.13040954232259</v>
+        <v>34.09436781347035</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.1304136576589</v>
+        <v>34.76032769235225</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.13196915517098</v>
+        <v>20.84180797836266</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.13195924446173</v>
+        <v>23.6336032664597</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.13150867064088</v>
+        <v>17.61579009656114</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.13150647465816</v>
+        <v>17.94683528431189</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.13161097212583</v>
+        <v>19.04317470243047</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>30.13156888440446</v>
+        <v>23.13470813777788</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.13151694527758</v>
+        <v>21.32297598998894</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.13149427430461</v>
+        <v>25.68564244142048</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.1306987352989</v>
+        <v>30.35860432511056</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.13079605067641</v>
+        <v>29.16239782723466</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.1305534715451</v>
+        <v>19.23196387400108</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.13054481618139</v>
+        <v>24.71631512916209</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.13164035794419</v>
+        <v>20.26997915678589</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.13161396721247</v>
+        <v>24.81746647810643</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.13102683866033</v>
+        <v>28.7828289082466</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.13103822332418</v>
+        <v>27.5617070138179</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.13096357010229</v>
+        <v>17.5155561231032</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.13088909477396</v>
+        <v>23.29000263718524</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.13200570413969</v>
+        <v>20.40314027300362</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.1320021070585</v>
+        <v>23.71918000024263</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.13168010001166</v>
+        <v>22.67918077617938</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.13168289023681</v>
+        <v>22.15438784370727</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.13159511883213</v>
+        <v>19.5164651625432</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.13158281932905</v>
+        <v>23.11236539836824</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.12986253431861</v>
+        <v>20.55332214077542</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.12999071635431</v>
+        <v>21.31483660649951</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.13058643610839</v>
+        <v>19.63174135124325</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>30.13058227611089</v>
+        <v>23.43634249899599</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.12942425024008</v>
+        <v>20.8873850034385</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.12944308701752</v>
+        <v>21.95747782969807</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.13009472084755</v>
+        <v>36.60139572387726</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.13009278694622</v>
+        <v>36.07182431108683</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.13083350795601</v>
+        <v>24.2027219356024</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.13081003850865</v>
+        <v>28.56220695310447</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.12984369511601</v>
+        <v>44.83316297740774</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.12984243120746</v>
+        <v>44.35603246943037</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.13028571257946</v>
+        <v>33.60356259188318</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.13027965816664</v>
+        <v>33.21266520313896</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.13096964788903</v>
+        <v>22.6693364593117</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.13091988503224</v>
+        <v>27.28714434526093</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.12997147834713</v>
+        <v>42.18599022870718</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.12996736823541</v>
+        <v>41.80935352144963</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.13105422182743</v>
+        <v>24.1619787174166</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.1310819287685</v>
+        <v>24.79769378405672</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.13151681931434</v>
+        <v>25.60114903841348</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.13151048006285</v>
+        <v>27.85533761414163</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.13086907920761</v>
+        <v>34.09436781347035</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.13128330722797</v>
+        <v>34.76032769235225</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.13196047701702</v>
+        <v>21.8940273054699</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.13195852683434</v>
+        <v>24.37004730113138</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.13147676890445</v>
+        <v>18.87966067433653</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.13147972531295</v>
+        <v>19.21162460307931</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.13138835672923</v>
+        <v>19.53680620898635</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.13163004038222</v>
+        <v>23.28777989435194</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.13188932245053</v>
+        <v>22.77489499921933</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.13188606556764</v>
+        <v>26.60469034730112</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.13134441237343</v>
+        <v>31.21828839540454</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.13133774289892</v>
+        <v>30.14235248437602</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.13142065086058</v>
+        <v>21.70593535409781</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.13141664880999</v>
+        <v>26.18984344170029</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.13200326889989</v>
+        <v>21.71788713155966</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.13199844686175</v>
+        <v>25.74059822142663</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.13152157982088</v>
+        <v>29.64669462823192</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.13151836402674</v>
+        <v>28.55210692367952</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.13142373876039</v>
+        <v>19.90040172326913</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.13144796486365</v>
+        <v>24.70708373636919</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.13221581867542</v>
+        <v>22.50540997553266</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.13220902110564</v>
+        <v>25.25722145427239</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.13183974593304</v>
+        <v>25.28261623521162</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.13184198572533</v>
+        <v>24.77913156764119</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.13170154324169</v>
+        <v>21.3921939496872</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.13170246332067</v>
+        <v>24.33827630182874</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.13107634790471</v>
+        <v>20.24176371215272</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.13107471846432</v>
+        <v>20.95059783604964</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.13163672806162</v>
+        <v>19.82110315325911</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.13163563048632</v>
+        <v>23.40373789682723</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.13101136913054</v>
+        <v>20.25214855101171</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.13104026153996</v>
+        <v>21.19269220859335</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.13049276044652</v>
+        <v>37.57260772593855</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.13049600464143</v>
+        <v>37.22611418706485</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.13104826799555</v>
+        <v>26.06477114104097</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.13105084046867</v>
+        <v>29.59236117995455</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.13011411068407</v>
+        <v>44.80593913192358</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.13012515255108</v>
+        <v>44.50951362688728</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.13061524246448</v>
+        <v>34.49189723918561</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.13061488792701</v>
+        <v>34.29226743254701</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.13145649638297</v>
+        <v>24.51847983521532</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.13109077405718</v>
+        <v>28.31391249764308</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.13010900967953</v>
+        <v>42.17567848346699</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.13012107929948</v>
+        <v>41.99689195021534</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.13131153253535</v>
+        <v>25.40234590068225</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.1313003481595</v>
+        <v>26.22173107251961</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.13180975727152</v>
+        <v>26.72686023636718</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.13180837918533</v>
+        <v>28.54033848700339</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.13125238723806</v>
+        <v>34.15286810196321</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.13124818297449</v>
+        <v>34.94100650735334</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.13202968781067</v>
+        <v>22.95500910748931</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.13202965274299</v>
+        <v>25.15358090754602</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.13159072267154</v>
+        <v>20.4274940928802</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.13158934410457</v>
+        <v>20.75162162579012</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.13146774608687</v>
+        <v>21.15286317916162</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.13146620756406</v>
+        <v>24.44656582382967</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30.13194365985128</v>
+        <v>25.03094289388607</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.13194449979703</v>
+        <v>28.21602309792088</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.13141789450308</v>
+        <v>33.86552857745018</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.13142246997709</v>
+        <v>32.88870188956571</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.13134711862448</v>
+        <v>24.22864814114457</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.13133383094467</v>
+        <v>27.96289179788087</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.13196619939248</v>
+        <v>24.01031516328284</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.13194510472454</v>
+        <v>27.38345167854238</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>30.13145350384311</v>
+        <v>32.35192242706137</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.13146021633773</v>
+        <v>31.35879349506039</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.13136723484626</v>
+        <v>22.55927633971227</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.13132759832859</v>
+        <v>26.59380020588716</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.13229738211808</v>
+        <v>23.93660435488091</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.13229851565121</v>
+        <v>26.29033781642001</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.13199302707005</v>
+        <v>27.01678904472583</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.13199349451562</v>
+        <v>26.57434479196675</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.13189839415056</v>
+        <v>23.09167643635433</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.13188760104522</v>
+        <v>25.57856253150611</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.13106220282195</v>
+        <v>22.35117108704988</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30.13108219911033</v>
+        <v>23.02071248359571</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.13169118121937</v>
+        <v>21.22985135791539</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.1316649351211</v>
+        <v>24.41666381666163</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.13114206466098</v>
+        <v>22.07988002340166</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.13111382050187</v>
+        <v>22.95497727306426</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.13053539447249</v>
+        <v>40.06097254662637</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.13054169682722</v>
+        <v>39.74208927085497</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.13139235565113</v>
+        <v>27.9564035806862</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.131370984275</v>
+        <v>30.87618987590546</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.13057799356604</v>
+        <v>46.28250878064363</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.13058323730198</v>
+        <v>46.00482359600691</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.13082178843933</v>
+        <v>37.22123978167252</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.13139847193958</v>
+        <v>26.53480575445547</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.1313706940058</v>
+        <v>29.70180917339222</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.13064935686713</v>
+        <v>43.87013595932701</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.13078901282273</v>
+        <v>43.70286294755419</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.13117242236784</v>
+        <v>27.36610029857689</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.1311766042825</v>
+        <v>28.17308598133845</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.13161605646291</v>
+        <v>27.84475889403864</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.13161002946712</v>
+        <v>29.32860218543721</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.13087890812616</v>
+        <v>35.17298176414271</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.1308846699665</v>
+        <v>35.94519424617962</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.13129773254801</v>
+        <v>21.28161890925686</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.13127371736994</v>
+        <v>23.85923439880993</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.13050238020636</v>
+        <v>17.87178555347781</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.13051206126222</v>
+        <v>18.12090076053763</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.13051545536056</v>
+        <v>20.80455700427726</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.1305059507355</v>
+        <v>24.27638833984766</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.13060851321868</v>
+        <v>19.94422593637243</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.13058395302205</v>
+        <v>24.25429487050444</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.12932028516054</v>
+        <v>25.89893121731619</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.12992449411108</v>
+        <v>24.91240966717086</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>30.12950433063086</v>
+        <v>18.38869222082806</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.12948169099964</v>
+        <v>23.66442805164863</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.13072931311003</v>
+        <v>18.97860948692561</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.1307218950408</v>
+        <v>23.4563413097516</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.12953178426131</v>
+        <v>24.42834106772375</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.12953760199396</v>
+        <v>23.42368652666624</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.1292857074551</v>
+        <v>16.9554834739979</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.12927783328602</v>
+        <v>22.46747913188018</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.13145981787527</v>
+        <v>19.8262432621371</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.13146103097018</v>
+        <v>23.12522691468665</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.13073040335088</v>
+        <v>20.58737451790859</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.13073620927126</v>
+        <v>20.09198501129902</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.13065152302327</v>
+        <v>20.5132380758928</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.13062496527206</v>
+        <v>23.73999510870494</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.12787747761274</v>
+        <v>22.11285355931802</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.12777515336601</v>
+        <v>22.74903524580456</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.12890528400439</v>
+        <v>21.36656502239452</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.12888855604494</v>
+        <v>24.58605381157501</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.12691827991993</v>
+        <v>22.5067881769833</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.12696675992355</v>
+        <v>23.39495695853403</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.12733695684834</v>
+        <v>31.89772568297391</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.12733809328554</v>
+        <v>31.44074229919815</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.12897315251127</v>
+        <v>23.06898128018112</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.12696388066783</v>
+        <v>39.70942453040436</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.12695503802485</v>
+        <v>39.29712754579564</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.12835379352485</v>
+        <v>29.36491585969046</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.12813081118574</v>
+        <v>29.02551966615997</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.1297808401291</v>
+        <v>21.78258912703877</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.12968730281172</v>
+        <v>26.20980457659383</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.12837827415383</v>
+        <v>37.47000913387567</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.12835127096916</v>
+        <v>37.13950149124782</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.12977696557003</v>
+        <v>24.20303686655955</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.12909768983117</v>
+        <v>24.68865726852355</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.13005900807592</v>
+        <v>26.17228936968415</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.13003645301174</v>
+        <v>28.14226652143067</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.12859576823798</v>
+        <v>33.40886378189227</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.12860744451536</v>
+        <v>33.93038757007076</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.13101207021206</v>
+        <v>21.5766885788445</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.13101289882505</v>
+        <v>24.08410237574383</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.13004320107369</v>
+        <v>18.26922705136216</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.13004810601386</v>
+        <v>18.54070246337072</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.13020329243457</v>
+        <v>20.56925509353343</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.13014762110011</v>
+        <v>24.07619970595168</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.13066911212261</v>
+        <v>20.25864530124839</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.13069061518619</v>
+        <v>24.52016500422659</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.12964765831888</v>
+        <v>26.53852042267468</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.12966114174694</v>
+        <v>25.53934309870888</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>30.1296302212785</v>
+        <v>18.37178132190661</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.12962348435419</v>
+        <v>23.65725512222533</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.13065720362303</v>
+        <v>19.28265096316279</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.13066123774913</v>
+        <v>23.71419984740402</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.12947417354529</v>
+        <v>25.04986396711686</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.12947479227949</v>
+        <v>24.03243986615411</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.12993354115838</v>
+        <v>16.89220676556628</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.12991962427795</v>
+        <v>22.42104966610011</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.13143829699627</v>
+        <v>19.95510140497184</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.13143891211043</v>
+        <v>23.23536235390975</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.13068468198498</v>
+        <v>20.89232780420725</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.13068799229294</v>
+        <v>20.38286542972858</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.13033208254589</v>
+        <v>20.2524114002678</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.1303606627904</v>
+        <v>23.52811639397845</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.12960713513381</v>
+        <v>21.62752866282408</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.12962236893769</v>
+        <v>22.28322205028608</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.13117076729053</v>
+        <v>21.15725084226746</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.1310661908743</v>
+        <v>24.40462761306564</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.13021342742806</v>
+        <v>22.05547645187243</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.12719787335255</v>
+        <v>22.96405166200167</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>30.12732855908209</v>
+        <v>31.96553571740471</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.12733362477384</v>
+        <v>31.52852854565013</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.12922396630992</v>
+        <v>23.18935620378819</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.12919943450147</v>
+        <v>27.383772852427</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.12734075989481</v>
+        <v>39.97136458010435</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.12735229454843</v>
+        <v>39.57830704668292</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.12743509334666</v>
+        <v>29.34848327906477</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.12743550269914</v>
+        <v>29.0349879530245</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.12898724881351</v>
+        <v>21.87202217996384</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.12895817130732</v>
+        <v>26.28364426753417</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>30.12679725280638</v>
+        <v>37.67625444674619</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.12681500980226</v>
+        <v>37.36928024846416</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.12953461787277</v>
+        <v>23.84977169583058</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.12952991916332</v>
+        <v>24.35632797708881</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>30.13057477087087</v>
+        <v>25.98252114615591</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.13057415000737</v>
+        <v>27.98902894192132</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.12990610206181</v>
+        <v>33.17109921015491</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.13003750210824</v>
+        <v>33.706207990724</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.13171385975064</v>
+        <v>20.27512322894894</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.13170466204491</v>
+        <v>23.22551042738592</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.131069821303</v>
+        <v>16.6322620642155</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.13108530081922</v>
+        <v>17.00466674202926</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.13089757806132</v>
+        <v>18.94043278039393</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.13089218748163</v>
+        <v>23.12991671636494</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.13161054996398</v>
+        <v>21.01844266765855</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.13159883865062</v>
+        <v>25.606501936227</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.1309315735748</v>
+        <v>30.67631890762159</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.13093740917823</v>
+        <v>29.42966474889155</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.1308123987272</v>
+        <v>21.88846828292584</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.13078800461484</v>
+        <v>26.88057322742702</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.13166001798371</v>
+        <v>19.75820931400578</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.131643017362</v>
+        <v>24.57334999560036</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.13121618529194</v>
+        <v>28.79711339320678</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.13122512497432</v>
+        <v>27.5275021714923</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.13112223006908</v>
+        <v>19.80935034566872</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.13109315333629</v>
+        <v>25.17052359582017</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>30.13202376124358</v>
+        <v>20.65004147834381</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.13199897133374</v>
+        <v>24.00297329875602</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.13153261125116</v>
+        <v>23.61027543828284</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30.13153579837194</v>
+        <v>23.01816115852569</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.13143750699299</v>
+        <v>20.80133146849132</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.13141515367274</v>
+        <v>24.11845114153806</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.13052545305122</v>
+        <v>20.70011190462774</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.13053714281772</v>
+        <v>21.5340630789848</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.13140989641456</v>
+        <v>19.33728771160357</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.13137254282351</v>
+        <v>23.3016016326535</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.13073584407874</v>
+        <v>20.75662224041479</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.13073006117486</v>
+        <v>21.87904207691671</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>30.12949669669185</v>
+        <v>41.79567937392365</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.12947681634754</v>
+        <v>41.34562960044097</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.1305463718856</v>
+        <v>26.66063095045067</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.13047658343028</v>
+        <v>30.59290860738597</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.1291824144635</v>
+        <v>49.78060213733177</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.1291568993271</v>
+        <v>49.37034302955</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.12966312959138</v>
+        <v>38.23592662134538</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.12968128149777</v>
+        <v>37.94612788251844</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.13105310103455</v>
+        <v>24.86408250097087</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.13098530847434</v>
+        <v>29.10831274596596</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.13004713043497</v>
+        <v>46.72137383580332</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.13005983904588</v>
+        <v>46.43424283956629</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.13057900196947</v>
+        <v>26.39006963174291</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.13058542306852</v>
+        <v>27.25102830630514</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.13118606238337</v>
+        <v>27.06996827021765</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.13117874849085</v>
+        <v>29.0381085121352</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.13082122418071</v>
+        <v>36.62619499292524</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.13084330096306</v>
+        <v>37.46758405779333</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.13127189876301</v>
+        <v>21.43752891538637</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.13125519408775</v>
+        <v>24.03131340406336</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.13044710161756</v>
+        <v>18.22453524863611</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.13044357304473</v>
+        <v>18.52473470451628</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.13016335422715</v>
+        <v>20.42835997338289</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.13016253887564</v>
+        <v>24.08031567736175</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.13124415138407</v>
+        <v>21.01351649986676</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.13123710507563</v>
+        <v>25.26719859152974</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.13040975629138</v>
+        <v>28.69230316499798</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.13041116798873</v>
+        <v>27.61627115392255</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.13029571787542</v>
+        <v>19.15955405712265</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.13026789995422</v>
+        <v>24.46011100705122</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.1311118381731</v>
+        <v>19.96646087192372</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.13110777503225</v>
+        <v>24.40326670370581</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.13015134330571</v>
+        <v>27.10370675223505</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.13015268050829</v>
+        <v>26.00789719093168</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.13035670033858</v>
+        <v>17.57318433604562</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.13031514978766</v>
+        <v>23.13783505979541</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.13168515632901</v>
+        <v>20.25806221876592</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.13168601508563</v>
+        <v>23.54086051812746</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.13105289171232</v>
+        <v>21.86907966546561</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.13106213145178</v>
+        <v>21.34225770131093</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.13108992360961</v>
+        <v>20.41253976865474</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.13108923773318</v>
+        <v>23.73265341015803</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.12869727529011</v>
+        <v>21.98470828661571</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.12865839119237</v>
+        <v>22.69444382071506</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.12954750995757</v>
+        <v>20.97048266078697</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.12953033608561</v>
+        <v>24.36469662980159</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.12794209627394</v>
+        <v>22.30639299650709</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.12798999079542</v>
+        <v>23.28739359285873</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.1284954449774</v>
+        <v>34.72431678877227</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.12896224677356</v>
+        <v>34.24902576561323</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.12992789053689</v>
+        <v>24.02402477804583</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.12988242935088</v>
+        <v>28.22277275733624</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.12845391642335</v>
+        <v>42.81150453515595</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.1284322795939</v>
+        <v>42.3832392950648</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.12911774338412</v>
+        <v>31.9338228630819</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.12912059238728</v>
+        <v>31.58794456842746</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.13015563096547</v>
+        <v>22.60865139471284</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.13012212905466</v>
+        <v>27.04302563329683</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.12879694212645</v>
+        <v>40.35664110968635</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.12878745806848</v>
+        <v>40.01971738869731</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.12973111256644</v>
+        <v>24.76627419639043</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.12973746664515</v>
+        <v>25.32895725495374</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.13059852874851</v>
+        <v>26.31118740870961</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.13056683540661</v>
+        <v>28.32736960379698</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.12943798034365</v>
+        <v>34.37755628708248</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.12923109167242</v>
+        <v>34.96670589191258</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.13149072979252</v>
+        <v>21.0158100773964</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.13148578646563</v>
+        <v>23.7086983882342</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.13073621785728</v>
+        <v>17.73147944522896</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.13073085204848</v>
+        <v>18.03643762758417</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.13113657031925</v>
+        <v>19.35090329187275</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.13113145666533</v>
+        <v>23.25545132851478</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.13122409607155</v>
+        <v>20.71960927043973</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.13121592440345</v>
+        <v>25.04731833324075</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.13031532538297</v>
+        <v>28.42812294444412</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.13031364621187</v>
+        <v>27.31712715405789</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.13006780473689</v>
+        <v>18.54851501318214</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.13008701218166</v>
+        <v>23.99368708158945</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.13131795227654</v>
+        <v>19.74760327436506</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.13128403216867</v>
+        <v>24.24473103295073</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.1305270955339</v>
+        <v>26.96018377902021</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.13054162623029</v>
+        <v>25.82722291233873</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.13023345663179</v>
+        <v>16.99849449028182</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.1302375251147</v>
+        <v>22.69933854078388</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.13171319229394</v>
+        <v>20.0438695545734</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.13171110194092</v>
+        <v>23.36034708382533</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.13107952161169</v>
+        <v>21.55936538909294</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.13108073460215</v>
+        <v>21.06527793630688</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.13118846315365</v>
+        <v>19.51323934349322</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.13114941804354</v>
+        <v>23.03078644239813</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.12895017015892</v>
+        <v>20.45181808591042</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.12894904634432</v>
+        <v>21.15520110142148</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.13012418467383</v>
+        <v>19.89314057703442</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.12998459835972</v>
+        <v>23.52730951877779</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.12848250828576</v>
+        <v>20.740501842121</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.12847664396386</v>
+        <v>21.73544987960855</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.12910215450291</v>
+        <v>33.96349159281825</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.12906573388853</v>
+        <v>33.46657295400465</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.1302718356744</v>
+        <v>23.52652230558025</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.12999063160869</v>
+        <v>27.8430971388764</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.12865916587158</v>
+        <v>42.19802222211501</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.12865079212704</v>
+        <v>41.75135607586461</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.12936174804908</v>
+        <v>31.22580885644815</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.12935435501869</v>
+        <v>30.8598710624775</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.13048323614335</v>
+        <v>22.13789192153529</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.13048666173932</v>
+        <v>26.68424783050547</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.12950359753651</v>
+        <v>39.78073841767502</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.12950195909676</v>
+        <v>39.42668642978515</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.13060162271897</v>
+        <v>23.5040896859447</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.1306055758155</v>
+        <v>24.07122015278924</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.13134406200846</v>
+        <v>25.42876882794608</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.13134283784353</v>
+        <v>27.63463888090224</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.13070318306787</v>
+        <v>33.13981443606836</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.13069727379229</v>
+        <v>33.74388625470654</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.13156084432415</v>
+        <v>20.76313475684814</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.13184838862243</v>
+        <v>23.54636559625269</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.13138088771798</v>
+        <v>17.46012599346938</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.13137860893167</v>
+        <v>17.76063346101049</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.13126452080616</v>
+        <v>19.29507142518714</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.13122287844988</v>
+        <v>23.28628409304472</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.13143687880076</v>
+        <v>20.72305985908181</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.13143725395551</v>
+        <v>25.12013378555103</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.13075046797863</v>
+        <v>28.81236932850998</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.13075636382604</v>
+        <v>27.67166184625004</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>30.13059186287173</v>
+        <v>18.5348289713877</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.13058510936679</v>
+        <v>24.07416801882531</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.13165335948824</v>
+        <v>19.71572388133741</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.13166247171734</v>
+        <v>24.28878862828554</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.1310533586173</v>
+        <v>27.30249824643664</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.13105287203596</v>
+        <v>26.13667789102468</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.13104241820531</v>
+        <v>16.91436930091157</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.13083248066921</v>
+        <v>22.72599617192567</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.13190794383066</v>
+        <v>20.1072487414769</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.13190110920034</v>
+        <v>23.44769791516344</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.13136076352962</v>
+        <v>21.86623189029535</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.13136334567489</v>
+        <v>21.36320870010574</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.13124792755026</v>
+        <v>19.53103095040242</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.13127253345533</v>
+        <v>23.09190630110384</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.13075493990242</v>
+        <v>20.74121919654401</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.13077058529332</v>
+        <v>21.46192813428665</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.13173507562205</v>
+        <v>19.86558169745464</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.1317307932432</v>
+        <v>23.57985014072875</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.13128266799599</v>
+        <v>21.07570177447559</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.13140276636494</v>
+        <v>22.09225174441509</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.12898474282132</v>
+        <v>34.66990760759506</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.12898682750491</v>
+        <v>34.15334425535158</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>30.13028320752516</v>
+        <v>23.42210069919105</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.13058540395107</v>
+        <v>27.85515336311818</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.12950399732889</v>
+        <v>42.79213680956901</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.12950200361319</v>
+        <v>42.3266187458815</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.12938900799907</v>
+        <v>31.83061756042055</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.12938785156619</v>
+        <v>31.44565788095418</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.13026429531271</v>
+        <v>21.9646115821623</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.1302883577582</v>
+        <v>26.64240901474261</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.12893487933427</v>
+        <v>40.27030500740388</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.1289515401366</v>
+        <v>39.8992464386009</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.13071812056214</v>
+        <v>23.80684335575908</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.1307187358344</v>
+        <v>24.39723463650981</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.13142105626801</v>
+        <v>25.53340224325733</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.13138538873772</v>
+        <v>27.7663412595415</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.13068714436811</v>
+        <v>33.60200882590556</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.13067829077936</v>
+        <v>34.23101486187644</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.13175333399496</v>
+        <v>21.27305367944138</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.13171449395091</v>
+        <v>23.91881110817563</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.13109523483597</v>
+        <v>18.14746372392347</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.13109545657911</v>
+        <v>18.45023663982184</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.13093940492544</v>
+        <v>19.51595673916884</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.13093125017013</v>
+        <v>23.37908112451031</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.1316066587288</v>
+        <v>20.99004565420282</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>30.13160761714759</v>
+        <v>25.25999762576824</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.13092320552991</v>
+        <v>28.83514909371435</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.13092374554317</v>
+        <v>27.7204613071983</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.13074795934604</v>
+        <v>18.86924771174284</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.13072596699961</v>
+        <v>24.23440685888614</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.1316192462391</v>
+        <v>20.04016154856922</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.13164653355301</v>
+        <v>24.47598536788256</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>30.13103971688116</v>
+        <v>27.41048241474859</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.13104892120081</v>
+        <v>26.27135225863254</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.13102268463599</v>
+        <v>17.28388378284986</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.1310200369033</v>
+        <v>22.9140880551025</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.13202181033067</v>
+        <v>20.48481507611364</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.13201662867391</v>
+        <v>23.70789358727988</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.13155495374964</v>
+        <v>22.27201051861382</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.13155833377403</v>
+        <v>21.77307464434963</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.13143949229658</v>
+        <v>19.69528183716739</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.13143946270611</v>
+        <v>23.17114873989865</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.13063751263859</v>
+        <v>20.65951477445885</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.13068928452995</v>
+        <v>21.3738800492461</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.13132171595204</v>
+        <v>20.14823074751772</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.13129709372864</v>
+        <v>23.72005559386129</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.13063117258342</v>
+        <v>21.10314854622411</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.13110645537448</v>
+        <v>22.1111281178601</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.13011449564143</v>
+        <v>34.46309755128638</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.13011656741764</v>
+        <v>33.96064033814535</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.13107450978146</v>
+        <v>23.72062454086742</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.13103413822757</v>
+        <v>27.98661059034218</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.12913171657398</v>
+        <v>42.47588515531587</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>30.12913995500022</v>
+        <v>42.02232716552972</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.13041987571678</v>
+        <v>31.67940229452777</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.13041203591022</v>
+        <v>31.3066029378499</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.13102508692484</v>
+        <v>22.29550793752566</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.13100790216134</v>
+        <v>26.80008624517899</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.13014186925662</v>
+        <v>40.00696361341889</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.13014833421823</v>
+        <v>39.64617894108908</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.13061239693124</v>
+        <v>23.79022975746913</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.13061768659239</v>
+        <v>24.35525360010479</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.13121875051566</v>
+        <v>25.44485455201727</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.13122538820789</v>
+        <v>27.64888074500467</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.13031858638382</v>
+        <v>33.17951085719164</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.1303299712768</v>
+        <v>33.77533380593182</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.13193902667512</v>
+        <v>21.14991299010835</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.13189969026979</v>
+        <v>23.7975584514195</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.13145363697038</v>
+        <v>17.9148538913293</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.13095327844593</v>
+        <v>18.18567098424138</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.13062508164984</v>
+        <v>19.75701444414682</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.13062442028082</v>
+        <v>23.52574311911967</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.13143418060093</v>
+        <v>20.19497920720457</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.13143595574703</v>
+        <v>24.54584763955403</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.13069080862078</v>
+        <v>27.00346128376673</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.13069492127518</v>
+        <v>25.938756197246</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.13054775498664</v>
+        <v>18.20752766283393</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.13053409895046</v>
+        <v>23.61979638454671</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.13147625721109</v>
+        <v>19.28737104637782</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.13147447309166</v>
+        <v>23.79573054000936</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.13072533804933</v>
+        <v>25.64046384881905</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.13073008840389</v>
+        <v>24.55121741044293</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.13059695049708</v>
+        <v>16.70609313786629</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.13059202348909</v>
+        <v>22.36803128854005</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.13199525983248</v>
+        <v>20.1182915852829</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.13199697219993</v>
+        <v>23.38347839420404</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.13163455229379</v>
+        <v>21.36021253697015</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.13166441438378</v>
+        <v>20.8785691985138</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.13157087376932</v>
+        <v>19.72410059873743</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.1315657898654</v>
+        <v>23.16139390397559</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.12954489922009</v>
+        <v>20.83413519062469</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.12948375291808</v>
+        <v>21.51035103478671</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.13025363139804</v>
+        <v>20.37096032363764</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.13023986934699</v>
+        <v>23.85795467144585</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.12898174338909</v>
+        <v>21.2782908830881</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.12902074855543</v>
+        <v>22.23490715643737</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.12956408924947</v>
+        <v>32.59978107659246</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.12957117048754</v>
+        <v>32.11687960809747</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.1304402686269</v>
+        <v>22.97171839205073</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.13038595989072</v>
+        <v>27.30328653001937</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.12917775520729</v>
+        <v>40.49490826585853</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.12917089609977</v>
+        <v>40.06045025932895</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.13015294553509</v>
+        <v>29.95586419377495</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.13020557698674</v>
+        <v>29.59572978973765</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.13109043532504</v>
+        <v>21.61366904118735</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.13104349964028</v>
+        <v>26.17220744974852</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.13030192106627</v>
+        <v>38.13770601263739</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.13016316945481</v>
+        <v>37.7899569109666</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.13038857924164</v>
+        <v>23.4550628438277</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.13039520762556</v>
+        <v>23.97781740022219</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.13107002096129</v>
+        <v>25.42769191547563</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.1310490238707</v>
+        <v>27.59943696659072</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.13014677219088</v>
+        <v>32.76165009057468</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.13015148454111</v>
+        <v>33.32363881793364</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.13193530370616</v>
+        <v>20.42360370672901</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.13192683483486</v>
+        <v>23.33422528975468</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.13145003081844</v>
+        <v>16.84584989558028</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.13144853025575</v>
+        <v>17.22637246826791</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.13140013017043</v>
+        <v>18.35184013519528</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.131387426957</v>
+        <v>22.67015948015688</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.13149088737147</v>
+        <v>20.7862043852768</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.13147349179442</v>
+        <v>25.43533613302941</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.13064172798078</v>
+        <v>30.44582610269317</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.13076101787325</v>
+        <v>29.17637592524065</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.13048541044818</v>
+        <v>21.51306997550757</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.13048088388839</v>
+        <v>26.57151185842683</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.13160410708571</v>
+        <v>19.50943214317907</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.13157936691487</v>
+        <v>24.38978763440718</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.13096331447306</v>
+        <v>28.53499786942907</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.13097253105329</v>
+        <v>27.24341630509326</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.13085951393473</v>
+        <v>19.37930891526203</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.1308017662772</v>
+        <v>24.81680801256814</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.13200480308841</v>
+        <v>20.52917727169501</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.13200283677332</v>
+        <v>23.91531854792217</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.13168728986799</v>
+        <v>23.49036042742292</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.13169111376987</v>
+        <v>22.87594763098232</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.13158859535929</v>
+        <v>20.19379279132002</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.13157670731952</v>
+        <v>23.63144293130738</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.12982556536421</v>
+        <v>19.76843495222717</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.12995468299378</v>
+        <v>20.594016692297</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.13058477293352</v>
+        <v>18.7546104263591</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.13058147818095</v>
+        <v>22.84456494120285</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.12942199807134</v>
+        <v>19.8333230731967</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.12944085486543</v>
+        <v>20.94531117060388</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.13008981652485</v>
+        <v>41.22027568501314</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.13009006375123</v>
+        <v>40.80327951148998</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.1308290650177</v>
+        <v>26.44247285855938</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.13080527515055</v>
+        <v>30.40663809850609</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.12984920115932</v>
+        <v>49.42595991652038</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.12984860954808</v>
+        <v>49.05334131830132</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.13026435997092</v>
+        <v>37.56723165233313</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.13026300988885</v>
+        <v>37.31579208973589</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.13095600569281</v>
+        <v>24.59809613335891</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.13090754224721</v>
+        <v>28.88286338259888</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.12987536805273</v>
+        <v>46.28649977374485</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.12987984287873</v>
+        <v>46.04143675998378</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.13100698769772</v>
+        <v>25.46008781438997</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.13102764116738</v>
+        <v>26.33746081983072</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.13148849076309</v>
+        <v>26.56149796062114</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.13148233278681</v>
+        <v>28.63011028304127</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.13084601385427</v>
+        <v>35.85327387891586</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.13118492080642</v>
+        <v>36.70965892211044</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.1317227972772</v>
+        <v>21.10558112821823</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.13171911131331</v>
+        <v>23.78737312033461</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.13112198118918</v>
+        <v>18.00940601152522</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.13113173996904</v>
+        <v>18.30138396918144</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.13101828283847</v>
+        <v>19.18929092170988</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.13139789739866</v>
+        <v>23.11986788664846</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.13164863256891</v>
+        <v>21.25491919045186</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.13164471747825</v>
+        <v>25.440419099947</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.13097199858271</v>
+        <v>29.18203286920639</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.13096588731403</v>
+        <v>28.06562971909782</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.13112885318536</v>
+        <v>18.96328380518773</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.13112360541816</v>
+        <v>24.26776174531746</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.13180155196373</v>
+        <v>20.36207961461426</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.13179612312808</v>
+        <v>24.70319336838062</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.13120289868074</v>
+        <v>27.8516493116039</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.1311996687516</v>
+        <v>26.71109188299899</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.13119087112418</v>
+        <v>17.40828474170504</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.13122663783563</v>
+        <v>22.97253800934802</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.13208124519823</v>
+        <v>20.75678226332118</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.13207156598705</v>
+        <v>23.89244475551539</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.13163754985014</v>
+        <v>22.59237259812365</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.13164104057564</v>
+        <v>22.13116024645527</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.13143770276134</v>
+        <v>19.60760756247702</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.13144680490165</v>
+        <v>23.08496418910977</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.13078379331235</v>
+        <v>20.19661485786844</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.13078535900284</v>
+        <v>20.89892512154605</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.13141688445476</v>
+        <v>19.77215061234983</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.13142171471722</v>
+        <v>23.42285278670869</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.13070322611802</v>
+        <v>20.55812393416315</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.13075034801431</v>
+        <v>21.55560989576849</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.12984624819673</v>
+        <v>34.41170971418138</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.12985334521469</v>
+        <v>33.91515395508056</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.13054685713895</v>
+        <v>23.73387853123126</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.13048253790139</v>
+        <v>27.95614577022236</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.12920249980494</v>
+        <v>42.27424853567565</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.12922092178242</v>
+        <v>41.83194336365847</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.13023005920887</v>
+        <v>31.68009921269855</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.13022400591708</v>
+        <v>31.31362730607059</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.13121157767286</v>
+        <v>22.33356050958891</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.1306537709865</v>
+        <v>26.79030293298778</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.12943244569705</v>
+        <v>39.84621836442818</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.12944293129509</v>
+        <v>39.49769073897184</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.13094271783009</v>
+        <v>23.53049643559943</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.13093157898074</v>
+        <v>24.10877878371855</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.13154687494647</v>
+        <v>25.27651079724637</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.13154625213213</v>
+        <v>27.49964331771018</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.13084315959146</v>
+        <v>32.78862574067903</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.13083991263742</v>
+        <v>33.40381453812766</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.13209463599448</v>
+        <v>24.17644572391835</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.13209448711651</v>
+        <v>26.06827762518512</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.13169431068406</v>
+        <v>22.22003590074386</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.1316930813174</v>
+        <v>22.54778941495706</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.13161044700649</v>
+        <v>21.93598631867354</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.13160817328225</v>
+        <v>24.96304428995268</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.13201496940315</v>
+        <v>27.19341414463521</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.13201682269525</v>
+        <v>29.79329399311495</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.13156527120246</v>
+        <v>36.6662048660466</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.13156655921738</v>
+        <v>35.75449802787929</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.13145116381164</v>
+        <v>25.50129282308384</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.13144075395761</v>
+        <v>28.7884164285734</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.13210135938886</v>
+        <v>26.22749976935989</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.13207995808801</v>
+        <v>29.00674222728556</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.13165898865391</v>
+        <v>35.23340038923133</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.13166310311532</v>
+        <v>34.30683397083767</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.13161484192889</v>
+        <v>23.92829965077527</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.13158946033733</v>
+        <v>27.49949534848265</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.1323336996671</v>
+        <v>25.37519557274655</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.13233398334749</v>
+        <v>27.3517670381782</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.13204442198927</v>
+        <v>28.9214513239856</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.13204481915384</v>
+        <v>28.50985722354186</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.13195403101607</v>
+        <v>23.87060220081018</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.13194613099518</v>
+        <v>26.11317200974742</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.1311821515752</v>
+        <v>23.15808486580239</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.13120561737245</v>
+        <v>23.7927041104537</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.13174748132419</v>
+        <v>21.96074608449272</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.13172933686558</v>
+        <v>24.90128579595423</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.13118369497298</v>
+        <v>22.83137203916571</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.13115608090534</v>
+        <v>23.6546976032208</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.13087782006959</v>
+        <v>40.89798762345998</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.13088332460888</v>
+        <v>40.61881860284726</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.13150574573006</v>
+        <v>29.01391375367182</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.13150294394957</v>
+        <v>31.53890595058914</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.13077909989753</v>
+        <v>46.72502506553711</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.13080983172783</v>
+        <v>46.48561495559669</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.13095057033812</v>
+        <v>38.22659661137649</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.1309496901744</v>
+        <v>38.07757749089057</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.13143198159016</v>
+        <v>27.67228475048402</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.1316852873705</v>
+        <v>30.43087279476329</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.13112072959972</v>
+        <v>44.45204447354637</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.13112053605528</v>
+        <v>44.31894801574693</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.13128824945418</v>
+        <v>28.05227994016209</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.13129029033485</v>
+        <v>28.84323801591418</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.13168175666159</v>
+        <v>28.23922322292539</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.13168497518114</v>
+        <v>29.56774751403584</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>30.13105047966733</v>
+        <v>35.25578035679521</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.13105211434162</v>
+        <v>36.00296330519845</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.132470986113</v>
+        <v>26.99415604578654</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.13247137496548</v>
+        <v>27.85464816186488</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.13225282174053</v>
+        <v>25.47009292411398</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.13225653403595</v>
+        <v>25.43321857558034</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.13223180259796</v>
+        <v>27.95519850118399</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.13222611697388</v>
+        <v>28.69355081204822</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.13236312615961</v>
+        <v>31.08570885972802</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.13239887026508</v>
+        <v>31.3229852625559</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.13213630566415</v>
+        <v>34.50907182492018</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.13213683407261</v>
+        <v>34.22323484987189</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.13202628546768</v>
+        <v>34.56073433248184</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.13202346976092</v>
+        <v>33.87454427190526</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.13241083931645</v>
+        <v>31.30962533554277</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.1324077062963</v>
+        <v>31.47125221377232</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.13215180506702</v>
+        <v>34.76876659607885</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.1321525746588</v>
+        <v>34.50253526369353</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.13207886156043</v>
+        <v>34.61599616575607</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.13207975496305</v>
+        <v>33.9166904598609</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.13255215687365</v>
+        <v>30.58183452706721</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.13255181340387</v>
+        <v>30.60461853898431</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.13237133014773</v>
+        <v>31.74693729811115</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.13237181908397</v>
+        <v>31.67851755266753</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.13230976745005</v>
+        <v>30.6647412668657</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.13231887812386</v>
+        <v>30.60088762273039</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.13168336657276</v>
+        <v>27.99130072196889</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.1316822613437</v>
+        <v>27.98411641453834</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.13201351960899</v>
+        <v>27.89788084799422</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.132011345196</v>
+        <v>28.61695240770825</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.13155527497226</v>
+        <v>27.7265583985431</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.13155369582878</v>
+        <v>27.74743166184015</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.1315350684001</v>
+        <v>40.13567622041808</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.13153506927028</v>
+        <v>40.24544756246223</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.13190990517555</v>
+        <v>35.70154317060204</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.13190502118374</v>
+        <v>34.79648504097546</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.13141334453368</v>
+        <v>41.9977143406683</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>30.13141445246367</v>
+        <v>42.01536026074734</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.13171757545933</v>
+        <v>40.22329255089615</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.13171938494038</v>
+        <v>40.32590000097809</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.13207889657731</v>
+        <v>35.80800385266132</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.13207733481098</v>
+        <v>34.88262036796763</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.13152177604322</v>
+        <v>42.17095563121114</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.13152144323015</v>
+        <v>42.1737845446183</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.13197359495524</v>
+        <v>32.30994252581252</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.13197375300989</v>
+        <v>32.5161800139594</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.13223139607918</v>
+        <v>31.57362936424762</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.13223105768931</v>
+        <v>31.33246232062704</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.13188447487184</v>
+        <v>33.80119960599694</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.13188435175207</v>
+        <v>33.98093010267956</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.13205504847503</v>
+        <v>21.61872601193416</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.13205312737394</v>
+        <v>24.1884541917434</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.13160243657033</v>
+        <v>18.84229072909108</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.13165406265418</v>
+        <v>19.15780479493987</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.13162983535039</v>
+        <v>19.18884982727204</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.13162429208636</v>
+        <v>23.08637711450049</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.1319662352279</v>
+        <v>22.60140483249374</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.13195350731491</v>
+        <v>26.51282580369102</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.13146832585866</v>
+        <v>31.35357506538125</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.13129308673694</v>
+        <v>30.23869809101294</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.13126719719411</v>
+        <v>20.54466925416929</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.13125906115863</v>
+        <v>25.41490031445133</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.13191193473615</v>
+        <v>21.69065824225981</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.13190467803488</v>
+        <v>25.76600359731925</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.13139095502855</v>
+        <v>30.02341593052821</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.13138756102922</v>
+        <v>28.88394007050663</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.13150550731774</v>
+        <v>18.84039523518011</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.13148304323181</v>
+        <v>24.00514324395854</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.13221187710572</v>
+        <v>22.22852685321733</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.13221190169028</v>
+        <v>25.03758544111119</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.1317992515245</v>
+        <v>24.93251532565039</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.13180014605908</v>
+        <v>24.49078389058803</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.13172806516384</v>
+        <v>20.55330255421709</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.13172750132725</v>
+        <v>23.76111149946922</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.13105044640638</v>
+        <v>20.03674174243414</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.13105817668187</v>
+        <v>20.782736775604</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.13123643408349</v>
+        <v>19.5901554500476</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.13123782039146</v>
+        <v>23.26689393364992</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.13039434480399</v>
+        <v>20.17114410782072</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.13038985241732</v>
+        <v>21.1905605274469</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.13023044210195</v>
+        <v>36.70771084155515</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.13023213768925</v>
+        <v>36.28555828871029</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.13103829811845</v>
+        <v>25.08518773869348</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.13103178970809</v>
+        <v>28.93715811258113</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.13004589573728</v>
+        <v>44.15665810228519</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.13004796268653</v>
+        <v>43.79687405261372</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.13038561795021</v>
+        <v>33.75631234555709</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.1303896143871</v>
+        <v>33.4793520098418</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.13107907696421</v>
+        <v>23.57362716827305</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.13107183550464</v>
+        <v>27.68368523684793</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.13008735579747</v>
+        <v>41.55955392058326</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.13009973327644</v>
+        <v>41.31155416247582</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.13122399319407</v>
+        <v>24.71687227110448</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.13132406273095</v>
+        <v>25.44336621371929</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.1318533479565</v>
+        <v>26.00340262977223</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.13184808486875</v>
+        <v>28.02996919742963</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.13137761683618</v>
+        <v>33.65507534682955</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.1313742300523</v>
+        <v>34.38581302016837</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.13194181849342</v>
+        <v>22.84061914273961</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.13194593055265</v>
+        <v>25.05752357293179</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.13145493238779</v>
+        <v>20.21835540380027</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.13145497092687</v>
+        <v>20.54071312676842</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.13132482416264</v>
+        <v>20.05143235795151</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.13132680103382</v>
+        <v>23.57774100166721</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.1319063115843</v>
+        <v>23.4261354798816</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.13190065604157</v>
+        <v>26.95382547863941</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.13139313791202</v>
+        <v>31.38134235122826</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.13139465262084</v>
+        <v>30.38204507487586</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.13129548951609</v>
+        <v>22.76983469227171</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.1314100965883</v>
+        <v>26.81846342782261</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.13202146574931</v>
+        <v>22.42916749259264</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.13201184436887</v>
+        <v>26.14100265047016</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.13157127109442</v>
+        <v>29.89730578502315</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.1315702355911</v>
+        <v>28.88066633750779</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.13143413472486</v>
+        <v>21.02671434578438</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.13147171765326</v>
+        <v>25.38703486290281</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.13222012506239</v>
+        <v>23.26332291258817</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.13221450478334</v>
+        <v>25.77977778131981</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.13184673170689</v>
+        <v>26.02530695397463</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.13184937165605</v>
+        <v>25.541800221275</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.13177731510213</v>
+        <v>21.94674102545143</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.13177876684161</v>
+        <v>24.67952847831427</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.13097177085725</v>
+        <v>20.49379801733355</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.13096954367517</v>
+        <v>21.15265435807683</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.13165877582448</v>
+        <v>20.28643769868328</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.13181326391744</v>
+        <v>23.66374860043329</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.13131278400804</v>
+        <v>20.45912037810377</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.13130933454447</v>
+        <v>21.3291619928809</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.13034490043358</v>
+        <v>37.76711463160912</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.13034759939548</v>
+        <v>37.48030860477498</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.13104268947455</v>
+        <v>26.84800039704655</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.13105629578337</v>
+        <v>30.00227191408809</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.13010325020064</v>
+        <v>44.50939859019194</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.13011658658072</v>
+        <v>44.26620317626289</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.13061118805687</v>
+        <v>34.79205364585332</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>30.13062563354854</v>
+        <v>34.64889766757607</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.13157229186621</v>
+        <v>25.35431287818069</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.13148005686605</v>
+        <v>28.7679014181396</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>30.13091270109665</v>
+        <v>41.97051055456748</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.13091304516293</v>
+        <v>41.84244529609823</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.13107104798996</v>
+        <v>25.64598814182186</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.13121576645437</v>
+        <v>26.43822822323057</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.13176443210357</v>
+        <v>26.80949845973296</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.13175420941198</v>
+        <v>28.51162396295162</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.13120245677801</v>
+        <v>33.62426073258359</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.13119616320462</v>
+        <v>34.38265482358568</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>30.13243541492291</v>
+        <v>26.96227983618399</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.13243363670799</v>
+        <v>27.8281535213283</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.13219642588708</v>
+        <v>25.42093503727087</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.13219605749292</v>
+        <v>25.38189914360629</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.13214402873807</v>
+        <v>27.90623851077749</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.13214477104479</v>
+        <v>28.65137284192988</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.13240682371433</v>
+        <v>31.01250335997062</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.1324031659607</v>
+        <v>31.25899986695871</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.13215187947556</v>
+        <v>34.35580408939978</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.13215263287514</v>
+        <v>34.07275419690729</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.13206603712727</v>
+        <v>34.43869717531423</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.13201905388053</v>
+        <v>33.77104062578603</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.13237080154589</v>
+        <v>31.24525489388436</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.13236923927552</v>
+        <v>31.41434339088365</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>30.13208948469712</v>
+        <v>34.62803746509358</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>30.1320921214689</v>
+        <v>34.36475018168954</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.13213358107664</v>
+        <v>34.50244440371861</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.13213032909047</v>
+        <v>33.81988465234532</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.13253561110965</v>
+        <v>30.54526738905859</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.13253539471186</v>
+        <v>30.57246760239718</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.13234626241913</v>
+        <v>31.66483311314949</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.13234616020171</v>
+        <v>31.59844861938911</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.13233987434065</v>
+        <v>30.61416134550698</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.13233988666286</v>
+        <v>30.55787207273212</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.13167789390057</v>
+        <v>27.8957664837577</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.13167721962169</v>
+        <v>27.88530429340707</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.1319883896558</v>
+        <v>27.84592915495699</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.13198951732273</v>
+        <v>28.57264756069338</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.13175002201402</v>
+        <v>27.62734359404793</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.13174924757301</v>
+        <v>27.64422603006017</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.13164120523789</v>
+        <v>39.88351787620834</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.13164065282293</v>
+        <v>39.99682687125206</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.13196705983633</v>
+        <v>35.59006019160814</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.13196602497871</v>
+        <v>34.70125928284128</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>30.13149244259293</v>
+        <v>41.7620332456324</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.13149109907495</v>
+        <v>41.78254948068202</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.13162316908364</v>
+        <v>39.98418580851847</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.1316217353903</v>
+        <v>40.0899591848665</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.13199650084325</v>
+        <v>35.70412797354696</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.13200450910748</v>
+        <v>34.79350213318255</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.13155551224376</v>
+        <v>41.94728271492657</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>30.13155430983606</v>
+        <v>41.95253837696619</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.13196086645261</v>
+        <v>32.2062214089458</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.13196197666731</v>
+        <v>32.41112811999422</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.13221728778788</v>
+        <v>31.50932450627392</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.13220204369942</v>
+        <v>31.27795028056537</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.13184033980197</v>
+        <v>33.67412398029941</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.13183995903533</v>
+        <v>33.85366680007816</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.13192393500775</v>
+        <v>21.06334412022183</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.13190977090616</v>
+        <v>23.80702565203421</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.13138881908345</v>
+        <v>17.77216651948529</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.13138743577215</v>
+        <v>18.14595466556611</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.13149441598635</v>
+        <v>18.76518466417001</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.13146652252801</v>
+        <v>22.91437789989595</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.13168805212329</v>
+        <v>21.44204789050602</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.13168202747088</v>
+        <v>25.85951681504252</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.13082688955859</v>
+        <v>30.94182752905675</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>30.13083457166635</v>
+        <v>29.72142256267173</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.13085935112785</v>
+        <v>20.95935260477605</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>30.13084409813247</v>
+        <v>26.03832156470781</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.1316887727404</v>
+        <v>20.2344607494959</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.13167933699629</v>
+        <v>24.87071714179777</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.13110796338163</v>
+        <v>29.1337155818838</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.13110888262926</v>
+        <v>27.89122379290755</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>30.13098886894081</v>
+        <v>18.94209882768534</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.13098165834195</v>
+        <v>24.3764014938916</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.13204373751753</v>
+        <v>20.95686291005115</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.13204411120252</v>
+        <v>24.20458128477839</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.13160027359699</v>
+        <v>23.87660596146928</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.13159613254241</v>
+        <v>23.28353218830078</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.13167646233862</v>
+        <v>20.23444964592215</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.13166661837848</v>
+        <v>23.62606433056555</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.13009385388325</v>
+        <v>20.03165442539214</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.13018341348524</v>
+        <v>20.83715383754721</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.13083796110372</v>
+        <v>19.22222833088637</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.13083572657695</v>
+        <v>23.13295607621626</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.12977244235698</v>
+        <v>20.20178477562932</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>30.12978726605935</v>
+        <v>21.28881994847697</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.12998934914127</v>
+        <v>39.52768272261973</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>30.12993215498868</v>
+        <v>39.10901099626027</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>30.13081251493421</v>
+        <v>25.92561261013026</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>30.13077108346489</v>
+        <v>29.90009489019234</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>30.1296669843152</v>
+        <v>47.75165510514795</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>30.12967117836034</v>
+        <v>47.38299868106815</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>30.12995773144031</v>
+        <v>36.06086744309028</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>30.12997408601619</v>
+        <v>35.8011963359695</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>30.13114427194136</v>
+        <v>24.17184808326729</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>30.13108582760831</v>
+        <v>28.44908255067166</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>30.13020971981125</v>
+        <v>44.75847465215021</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>30.13022089868582</v>
+        <v>44.51161055409681</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>30.1311768406851</v>
+        <v>25.18033426065126</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>30.1312102663372</v>
+        <v>26.0018477588546</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>30.13178186314684</v>
+        <v>26.41130526649988</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>30.13177368505021</v>
+        <v>28.47248934955874</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>30.13133240767255</v>
+        <v>35.27795297183786</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>30.1306279348104</v>
+        <v>36.08042919145929</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>30.13208031773739</v>
+        <v>21.45824448577403</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>30.13207188953175</v>
+        <v>24.09336018936938</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>30.13166378149374</v>
+        <v>18.58414817885653</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.13166126614074</v>
+        <v>18.93006312836427</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.13155725073716</v>
+        <v>19.01809508362228</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>30.13158858084061</v>
+        <v>23.03307996148664</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>30.13182960100859</v>
+        <v>22.77639586169023</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>30.13182012942483</v>
+        <v>26.77349192003862</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>30.13127996710519</v>
+        <v>32.34016151891738</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>30.13128588225204</v>
+        <v>31.17434486194928</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>30.1311814038524</v>
+        <v>21.11974929957371</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>30.13118955625883</v>
+        <v>26.00727152615968</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>30.13196352161685</v>
+        <v>21.74522003684569</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>30.13195693649406</v>
+        <v>25.92907861081526</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>30.13147011360048</v>
+        <v>30.8229398392576</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>30.1312727359976</v>
+        <v>29.63281293218219</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>30.13135634710429</v>
+        <v>19.28185697845217</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>30.13131257829377</v>
+        <v>24.48990902985652</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>30.13216520031955</v>
+        <v>22.04890710377681</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>30.13216244335511</v>
+        <v>24.964815204746</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>30.13175200868139</v>
+        <v>25.08796401305856</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>30.13175364684912</v>
+        <v>24.60003281403961</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.13168574357903</v>
+        <v>20.51567675697613</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>30.13168378322441</v>
+        <v>23.78473576205974</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>30.13103987640358</v>
+        <v>20.14815412561754</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>30.13105349610232</v>
+        <v>20.92880811380341</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>30.13176047779438</v>
+        <v>19.3870469019022</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>30.13170110407226</v>
+        <v>23.18658385456768</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>30.13126598597519</v>
+        <v>20.20585499575995</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>30.13125793920986</v>
+        <v>21.26531110549628</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>30.12987233574454</v>
+        <v>38.71309184742685</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>30.13023893174535</v>
+        <v>38.28599208676323</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>30.13102431363453</v>
+        <v>25.76083607508461</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.13101166583109</v>
+        <v>29.61098234037634</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>30.13004216537324</v>
+        <v>46.35753877652793</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>30.13004411325769</v>
+        <v>45.9887854834729</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>30.13023884332918</v>
+        <v>35.54305769283664</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>30.13024296833678</v>
+        <v>35.26886682087797</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>30.13096844043474</v>
+        <v>24.14386088104196</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>30.13095840516121</v>
+        <v>28.27160822388769</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>30.12991726841203</v>
+        <v>43.58837232865376</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>30.12993044241274</v>
+        <v>43.33774586405711</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>30.13119930038273</v>
+        <v>25.1320270672492</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>30.1312004182612</v>
+        <v>25.91771074279295</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>30.13175220043164</v>
+        <v>26.21501510015933</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.13173864951396</v>
+        <v>28.25275562949228</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>30.13119298194379</v>
+        <v>34.47090799238151</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>30.1311545056284</v>
+        <v>35.25342911171509</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.012</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.33</v>
+        <v>22.068</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.24</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.223</v>
+        <v>20.415</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.227</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.198</v>
+        <v>20.272</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.22478294602281</v>
+        <v>-9.849191814179832</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.3535743808997</v>
+        <v>19.15951393579128</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.80097874190158</v>
+        <v>34.49617781026241</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.1403768358288</v>
+        <v>40.73471238457917</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.68536547923194</v>
+        <v>-5.207913052177148</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.07409252806318</v>
+        <v>23.80368144167171</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.24996308898923</v>
+        <v>-4.97713781883958</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.40383497931723</v>
+        <v>24.03178366329855</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.37970320842205</v>
+        <v>39.36889032705399</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.38324613180894</v>
+        <v>45.60743355523137</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.0240882204003</v>
+        <v>-0.3352395830672066</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.79537890330796</v>
+        <v>28.67657065210422</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.21260171077181</v>
+        <v>-2.091941753691955</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.5582271674178</v>
+        <v>26.91696689386045</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.83360170038063</v>
+        <v>42.25417573122452</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.82168473927041</v>
+        <v>48.49271884940272</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.3052510615524</v>
+        <v>2.550257574728519</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.38572542456241</v>
+        <v>31.56205496936077</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.01826328601662</v>
+        <v>-7.626507050242068</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.36262589202913</v>
+        <v>21.38234377347835</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.22913046718176</v>
+        <v>36.71913506238737</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.76593417736491</v>
+        <v>42.95770633205923</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.59384093914478</v>
+        <v>-2.984931065300358</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.18164849761099</v>
+        <v>26.02680850979876</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.58134271131701</v>
+        <v>39.14104804936819</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.24750148239265</v>
+        <v>45.38116432333045</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.77317245730245</v>
+        <v>3.090240879364117</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.05066790825066</v>
+        <v>32.10172643602694</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.31756188486245</v>
+        <v>47.43984490670171</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.18920285866513</v>
+        <v>53.68000225246517</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.78953045411583</v>
+        <v>44.01438008300904</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.49984755719179</v>
+        <v>50.25450501774021</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.9375613998564</v>
+        <v>7.962982140692887</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.8556843170213</v>
+        <v>36.97468343036503</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.27622246572356</v>
+        <v>52.31324472592731</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.03077017030775</v>
+        <v>58.55341073031362</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.86448870930672</v>
+        <v>46.89996657913612</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.71631162749136</v>
+        <v>53.14009140294532</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.47101560552553</v>
+        <v>10.84850414736259</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.64404777789683</v>
+        <v>39.86019259383336</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.78746903425507</v>
+        <v>55.19885606557303</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43.65688266089412</v>
+        <v>61.43902195911194</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.63168858900139</v>
+        <v>41.36430253604847</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.45224228215568</v>
+        <v>47.60445551374194</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.42182210691903</v>
+        <v>5.313326144771466</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.99247318445548</v>
+        <v>34.32495677862887</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.56143094453186</v>
+        <v>49.66320267110105</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.34293771691761</v>
+        <v>55.90339672002638</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.84180797836266</v>
+        <v>-10.1877619052148</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.6336032664597</v>
+        <v>18.82143805142216</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17.61579009656114</v>
+        <v>34.1576343626502</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.94683528431189</v>
+        <v>40.39600176854374</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>19.04317470243047</v>
+        <v>-5.546582723299295</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.13470813777788</v>
+        <v>23.46550601021552</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.32297598998894</v>
+        <v>-5.315800462917466</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.68564244142048</v>
+        <v>23.6936152303859</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.35860432511056</v>
+        <v>39.03025431917565</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.16239782723466</v>
+        <v>45.26863037881272</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.23196387400108</v>
+        <v>-0.6740018082743262</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.71631512916209</v>
+        <v>28.3383026709334</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.26997915678589</v>
+        <v>-2.430652178000443</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.81746647810643</v>
+        <v>26.578750680076</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.7828289082466</v>
+        <v>41.91549194050499</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.5617070138179</v>
+        <v>48.15386789030431</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.5155561231032</v>
+        <v>2.211447570542944</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.29000263718524</v>
+        <v>31.22373920843138</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.40314027300362</v>
+        <v>-7.965136941082321</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.71918000024263</v>
+        <v>21.04420809225549</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22.67918077617938</v>
+        <v>36.38053181233779</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.15438784370727</v>
+        <v>42.61893591254871</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.5164651625432</v>
+        <v>-3.3236605352037</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.11236539836824</v>
+        <v>25.68857328175712</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.55332214077542</v>
+        <v>38.80240508866105</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.31483660649951</v>
+        <v>45.04235414741898</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.63174135124325</v>
+        <v>2.751711860928324</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.43634249899599</v>
+        <v>31.76369164935086</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.8873850034385</v>
+        <v>47.10134258744922</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.95747782969807</v>
+        <v>53.3413327308037</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.60139572387726</v>
+        <v>43.67564456136138</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.07182431108683</v>
+        <v>49.91560228070962</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.2027219356024</v>
+        <v>7.624360574537334</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.56220695310447</v>
+        <v>36.63655610015003</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.83316297740774</v>
+        <v>51.97464985157167</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.35603246943037</v>
+        <v>58.21464865345725</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.60356259188318</v>
+        <v>46.56118327513884</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.21266520313896</v>
+        <v>52.80114088335024</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.6693364593117</v>
+        <v>10.5098348046392</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.28714434526093</v>
+        <v>39.52201748596754</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.18599022870718</v>
+        <v>54.8602134116572</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.80935352144963</v>
+        <v>61.10021210223449</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.1619787174166</v>
+        <v>41.02559977366771</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.79769378405672</v>
+        <v>47.26558553464209</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.60114903841348</v>
+        <v>4.974737329695543</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.85533761414163</v>
+        <v>33.98686219724409</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.09436781347035</v>
+        <v>49.3246405524571</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.76032769235225</v>
+        <v>55.56466739745083</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.84180797836266</v>
+        <v>-10.42902284282347</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.6336032664597</v>
+        <v>18.58017715235367</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>17.61579009656114</v>
+        <v>33.91641528913313</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.94683528431189</v>
+        <v>40.15476779807189</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.04317470243047</v>
+        <v>-5.787687954702776</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.13470813777788</v>
+        <v>23.22440082136082</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.32297598998894</v>
+        <v>-5.557060998828931</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.68564244142048</v>
+        <v>23.45235473289456</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.35860432511056</v>
+        <v>38.7890356475768</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.16239782723466</v>
+        <v>45.02739680985287</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.23196387400108</v>
+        <v>-0.91510663724425</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24.71631512916209</v>
+        <v>28.09719788479329</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.26997915678589</v>
+        <v>-2.671910686173575</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.81746647810643</v>
+        <v>26.33749221011256</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.7828289082466</v>
+        <v>41.67427529673996</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.5617070138179</v>
+        <v>47.91263634945706</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.5155561231032</v>
+        <v>1.970344768877411</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>23.29000263718524</v>
+        <v>30.98263644979484</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20.40314027300362</v>
+        <v>-8.206396681777434</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>23.71918000024263</v>
+        <v>20.80294838976359</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>22.67918077617938</v>
+        <v>36.13931393586638</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.15438784370727</v>
+        <v>42.3777031389438</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.5164651625432</v>
+        <v>-3.564764569377687</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23.11236539836824</v>
+        <v>25.44746929038213</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.55332214077542</v>
+        <v>38.56134173474773</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.31483660649951</v>
+        <v>44.80127589552008</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.63174135124325</v>
+        <v>2.510651363645323</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.43634249899599</v>
+        <v>31.52263119770676</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.8873850034385</v>
+        <v>46.8603239699665</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>21.95747782969807</v>
+        <v>53.10029921535893</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.60139572387726</v>
+        <v>43.43458161012957</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.07182431108683</v>
+        <v>49.67452443131761</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.2027219356024</v>
+        <v>7.383300480014398</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.56220695310447</v>
+        <v>36.39549605111036</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.83316297740774</v>
+        <v>51.73363163713198</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.35603246943037</v>
+        <v>57.97361554089089</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.60356259188318</v>
+        <v>46.32012235129032</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.21266520313896</v>
+        <v>52.56006506166382</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.6693364593117</v>
+        <v>10.26877673747931</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>27.28714434526093</v>
+        <v>39.28095946468848</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.18599022870718</v>
+        <v>54.61919722499461</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.80935352144963</v>
+        <v>60.8591810174341</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.1619787174166</v>
+        <v>40.78453761745477</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.79769378405672</v>
+        <v>47.02450848066822</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.60114903841348</v>
+        <v>4.733678029643514</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.85533761414163</v>
+        <v>33.74580294303912</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.09436781347035</v>
+        <v>49.08362313323967</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.76032769235225</v>
+        <v>55.32363508018905</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.8940273054699</v>
+        <v>-15.51588818991392</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.37004730113138</v>
+        <v>13.49274672265138</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>18.87966067433653</v>
+        <v>28.82933704087812</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>19.21162460307931</v>
+        <v>35.06777056912331</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>19.53680620898635</v>
+        <v>-10.87473842980641</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.28777989435194</v>
+        <v>18.13678522178891</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.77489499921933</v>
+        <v>-10.64387652153623</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.60469034730112</v>
+        <v>18.36497412283127</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.21828839540454</v>
+        <v>33.7020072288329</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.14235248437602</v>
+        <v>39.94044941032026</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.70593535409781</v>
+        <v>-6.002107290044066</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.18984344170029</v>
+        <v>23.00963210244795</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.71788713155966</v>
+        <v>-7.758674150945737</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.74059822142663</v>
+        <v>21.25016365894255</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.64669462823192</v>
+        <v>36.58729893902064</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.55210692367952</v>
+        <v>42.82574101088922</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.90040172326913</v>
+        <v>-3.116603827870378</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.70708373636919</v>
+        <v>25.89512272456041</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.50540997553266</v>
+        <v>-13.29322231977214</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.25722145427239</v>
+        <v>15.71555766666923</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.28261623521162</v>
+        <v>31.05227539870494</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.77913156764119</v>
+        <v>37.29074562135266</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.3921939496872</v>
+        <v>-8.651775337609635</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.33827630182874</v>
+        <v>20.35989339525618</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.24176371215272</v>
+        <v>33.47407829366018</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.95059783604964</v>
+        <v>39.71409351160817</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.82110315325911</v>
+        <v>-2.576237443875286</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.40373789682723</v>
+        <v>26.4351772713505</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>20.25214855101171</v>
+        <v>41.77322222397693</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21.19269220859335</v>
+        <v>48.01327851618346</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.57260772593855</v>
+        <v>38.34736799615514</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>37.22611418706485</v>
+        <v>44.58739187424096</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.06477114104097</v>
+        <v>2.296461491356652</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.59236117995455</v>
+        <v>31.30809193892215</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.80593913192358</v>
+        <v>46.64657971432798</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.50951362688728</v>
+        <v>52.88664466476401</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.49189723918561</v>
+        <v>41.23296079715824</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.29226743254701</v>
+        <v>47.47298456449614</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.51847983521532</v>
+        <v>5.181989802339174</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.31391249764308</v>
+        <v>34.19360740647376</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.17567848346699</v>
+        <v>49.53219735891408</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>41.99689195021534</v>
+        <v>55.77226219830546</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.40234590068225</v>
+        <v>35.69731388510623</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.22173107251961</v>
+        <v>41.9373658060011</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.72686023636718</v>
+        <v>-0.353171072143752</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.54033848700339</v>
+        <v>28.6583887200007</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.15286810196321</v>
+        <v>43.99656109421842</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.94100650735334</v>
+        <v>50.23665408869563</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.95500910748931</v>
+        <v>-4.888409253456231</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.15358090754602</v>
+        <v>24.12047569760655</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.4274940928802</v>
+        <v>39.45724045027596</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.75162162579012</v>
+        <v>45.69571509731379</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.15286317916162</v>
+        <v>-0.2467363698153093</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.44656582382967</v>
+        <v>28.76503730859061</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.03094289388607</v>
+        <v>-0.01636788262321431</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.21602309792088</v>
+        <v>28.99273280094174</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.86552857745018</v>
+        <v>44.32994034203689</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>32.88870188956571</v>
+        <v>50.56842364178927</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.22864814114457</v>
+        <v>4.625924470680687</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.96289179788087</v>
+        <v>33.63791389080923</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.01031516328284</v>
+        <v>2.86880378381268</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.38345167854238</v>
+        <v>31.87789163171801</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>32.35192242706137</v>
+        <v>47.21520134616715</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.35879349506039</v>
+        <v>53.45368453570582</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.55927633971227</v>
+        <v>7.51139722576211</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.59380020588716</v>
+        <v>36.52337380478043</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.93660435488091</v>
+        <v>-2.665717796066744</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.29033781642001</v>
+        <v>26.34331222923647</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.01678904472583</v>
+        <v>41.6802043975152</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.57434479196675</v>
+        <v>47.9187157388313</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.09167643635433</v>
+        <v>1.976252309771283</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.57856253150611</v>
+        <v>30.98817106978011</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.35117108704988</v>
+        <v>44.10250483793739</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.02071248359571</v>
+        <v>50.34256116525917</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>21.22985135791539</v>
+        <v>8.051053036103966</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.41666381666163</v>
+        <v>37.06271776086562</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.07988002340166</v>
+        <v>52.40093714694429</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.95497727306426</v>
+        <v>58.64103454512527</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.06097254662637</v>
+        <v>48.97582424206162</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>39.74208927085497</v>
+        <v>55.21588922904694</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.9564035806862</v>
+        <v>12.92378166651584</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.87618987590546</v>
+        <v>41.93566212413039</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>46.28250878064363</v>
+        <v>57.27432433432166</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>46.00482359600691</v>
+        <v>63.5144303900159</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.22123978167252</v>
+        <v>51.86138633424919</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.53480575445547</v>
+        <v>15.80927927052956</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.70180917339222</v>
+        <v>44.82114688426971</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>43.87013595932701</v>
+        <v>60.15991126992169</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>43.70286294755419</v>
+        <v>66.40001721414281</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.36610029857689</v>
+        <v>46.32576601814215</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.17308598133845</v>
+        <v>52.56585904794379</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.84475889403864</v>
+        <v>10.27414499214906</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.32860218543721</v>
+        <v>39.28595479393614</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>35.17298176414271</v>
+        <v>54.62430160280537</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.94519424617962</v>
+        <v>60.86443570263846</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.28161890925686</v>
+        <v>-4.762477747467116</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.85923439880993</v>
+        <v>24.24634229829071</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.87178555347781</v>
+        <v>39.58271177099478</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.12090076053763</v>
+        <v>45.82088731358438</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.80455700427726</v>
+        <v>-0.1206466413661218</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.27638833984766</v>
+        <v>28.89106210556118</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.94422593637243</v>
+        <v>0.1094057687102605</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.25429487050444</v>
+        <v>29.11844154600199</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.89893121731619</v>
+        <v>44.45525379256578</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.91240966717086</v>
+        <v>50.69343798683515</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>18.38869222082806</v>
+        <v>4.751856332548144</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.66442805164863</v>
+        <v>33.76378082035531</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>18.97860948692561</v>
+        <v>2.994492618714119</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.4563413097516</v>
+        <v>32.00351556074561</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.42834106772375</v>
+        <v>47.34042997718275</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.42368652666624</v>
+        <v>53.57861406131845</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.9554834739979</v>
+        <v>7.637244266469637</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.46747913188018</v>
+        <v>36.6491559128245</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>19.8262432621371</v>
+        <v>-2.53986894444715</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.12522691468665</v>
+        <v>26.46909617555293</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.58737451790859</v>
+        <v>41.80559305819675</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.09198501129902</v>
+        <v>48.04380529294697</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.5132380758928</v>
+        <v>2.102259379187288</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.73999510870494</v>
+        <v>31.11411320730424</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.11285355931802</v>
+        <v>44.22813438715168</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.74903524580456</v>
+        <v>50.46789154859637</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.36656502239452</v>
+        <v>8.177148345017443</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.58605381157501</v>
+        <v>37.1887481294536</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.5067881769833</v>
+        <v>52.52657225119601</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.39495695853403</v>
+        <v>58.76637049490837</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.89772568297391</v>
+        <v>49.10129591002574</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.44074229919815</v>
+        <v>55.34106173060532</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.06898128018112</v>
+        <v>13.04971911102014</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39.70942453040436</v>
+        <v>57.3998015591671</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.29712754579564</v>
+        <v>63.63960845988045</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.36491585969046</v>
+        <v>51.9867731773257</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.02551966615997</v>
+        <v>58.2265388866136</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.78258912703877</v>
+        <v>15.93513189519986</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.20980457659383</v>
+        <v>44.94693456786054</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.47000913387567</v>
+        <v>60.28530367114577</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.13950149124782</v>
+        <v>66.52511045996648</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.20303686655955</v>
+        <v>46.45131290326147</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.68865726852355</v>
+        <v>52.69110676557689</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.17228936968415</v>
+        <v>10.40015764199468</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.14226652143067</v>
+        <v>39.41190250340226</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.40886378189227</v>
+        <v>54.749854042427</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.93038757007076</v>
+        <v>60.98968898620599</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.5766885788445</v>
+        <v>-13.03427073701509</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.08410237574383</v>
+        <v>15.97428187488158</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.26922705136216</v>
+        <v>31.31045748092102</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>18.54070246337072</v>
+        <v>37.54882647235338</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>20.56925509353343</v>
+        <v>-8.39299630483417</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.07619970595168</v>
+        <v>20.61844506074983</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.25864530124839</v>
+        <v>-8.162329857915367</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.52016500422659</v>
+        <v>20.84643848611536</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.53852042267468</v>
+        <v>36.18305687003449</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.53934309870888</v>
+        <v>42.42143451564216</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>18.37178132190661</v>
+        <v>-3.520435954395381</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.65725512222533</v>
+        <v>25.49122115217411</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.28265096316279</v>
+        <v>-5.277185035664431</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.71419984740402</v>
+        <v>23.73157047415039</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.04986396711686</v>
+        <v>39.068291029067</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.03243986615411</v>
+        <v>45.3066685652196</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.89220676556628</v>
+        <v>-0.6349900407248441</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.42104966610011</v>
+        <v>28.37665422599646</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.95510140497184</v>
+        <v>-10.81165935085555</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.23536235390975</v>
+        <v>18.19703833522881</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.89232780420725</v>
+        <v>33.53334135005476</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.38286542972858</v>
+        <v>39.77174703618341</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.2524114002678</v>
+        <v>-6.1700876955354</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.52811639397845</v>
+        <v>22.84149875088208</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>21.62752866282408</v>
+        <v>35.95532338622509</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.28322205028608</v>
+        <v>42.19527404636752</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>21.15725084226746</v>
+        <v>-0.09446800411062384</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.40462761306564</v>
+        <v>28.91686443912768</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.05547645187243</v>
+        <v>44.25449461752392</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.96405166200167</v>
+        <v>50.4944863566745</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.96553571740471</v>
+        <v>40.82854228935635</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.52852854565013</v>
+        <v>47.06850161065991</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.18935620378819</v>
+        <v>4.778160144437905</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.383772852427</v>
+        <v>33.78970832019634</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>39.97136458010435</v>
+        <v>49.12778131215164</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.57830704668292</v>
+        <v>55.36778171052215</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.34848327906477</v>
+        <v>43.7140775396394</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.0349879530245</v>
+        <v>49.95403675000769</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.87202217996384</v>
+        <v>7.663630909050383</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.28364426753417</v>
+        <v>36.67516624189166</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>37.67625444674619</v>
+        <v>52.01334140752802</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.36928024846416</v>
+        <v>58.25334169466073</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>23.84977169583058</v>
+        <v>38.1785044891197</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.35632797708881</v>
+        <v>44.41849185211727</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.98252114615591</v>
+        <v>2.128543886123751</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.98902894192132</v>
+        <v>31.1400214060421</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.17109921015491</v>
+        <v>46.47777900088063</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.706207990724</v>
+        <v>52.7178074422912</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>20.27512322894894</v>
+        <v>-8.17212560596947</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.22551042738592</v>
+        <v>20.83697643010755</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.6322620642155</v>
+        <v>36.17377262809505</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17.00466674202926</v>
+        <v>42.41226345133744</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>18.94043278039393</v>
+        <v>-3.530617323572798</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.12991671636494</v>
+        <v>25.48137346916617</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.01844266765855</v>
+        <v>-3.300064299597167</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.606501936227</v>
+        <v>25.70925347126884</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.67631890762159</v>
+        <v>41.04649245949254</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.42966474889155</v>
+        <v>47.2849919356856</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.88846828292584</v>
+        <v>1.342063457489033</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.88057322742702</v>
+        <v>30.35426999445049</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>19.75820931400578</v>
+        <v>-0.4148650191721543</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.57334999560036</v>
+        <v>28.59443991595818</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.79711339320678</v>
+        <v>43.93178107823105</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.5275021714923</v>
+        <v>50.17028044455078</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.80935034566872</v>
+        <v>4.227563830216994</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.17052359582017</v>
+        <v>33.23975752572979</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>20.65004147834381</v>
+        <v>-5.949430121907241</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.00297329875602</v>
+        <v>23.05981699009563</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.61027543828284</v>
+        <v>38.39674060311911</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.01816115852569</v>
+        <v>44.63526812083315</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>20.80133146849132</v>
+        <v>-1.307624615358847</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.11845114153806</v>
+        <v>27.70451126092162</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>20.70011190462774</v>
+        <v>40.81887244592413</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.5340630789848</v>
+        <v>47.058944959057</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.33728771160357</v>
+        <v>4.767461721554653</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.3016016326535</v>
+        <v>33.7793435626797</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.75662224041479</v>
+        <v>49.11759441083252</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.87904207691671</v>
+        <v>55.3577079976197</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.79567937392365</v>
+        <v>45.69221179611129</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.34562960044097</v>
+        <v>51.93229296907687</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.66063095045067</v>
+        <v>9.640210295073828</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.59290860738597</v>
+        <v>38.65230787196693</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>49.78060213733177</v>
+        <v>53.99100154630487</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>49.37034302955</v>
+        <v>60.23112379077743</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.23592662134538</v>
+        <v>48.57780150623587</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.94612788251844</v>
+        <v>54.8178825681194</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.86408250097087</v>
+        <v>12.52573551719145</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.10831274596596</v>
+        <v>41.537820249669</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>46.72137383580332</v>
+        <v>56.87661610045048</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>46.43424283956629</v>
+        <v>63.11673823327438</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.39006963174291</v>
+        <v>43.04213765692403</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.25102830630514</v>
+        <v>49.28224687283212</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.06996827021765</v>
+        <v>6.990557708248119</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.0381085121352</v>
+        <v>36.00258462826669</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.62619499292524</v>
+        <v>51.3409628991413</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.46758405779333</v>
+        <v>57.58111318797826</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.43752891538637</v>
+        <v>-0.7066437310032114</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.03131340406336</v>
+        <v>28.30251683551076</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.22453524863611</v>
+        <v>43.63901906917529</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>18.52473470451628</v>
+        <v>49.87731830202775</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.42835997338289</v>
+        <v>3.93460545275498</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.08031567736175</v>
+        <v>32.94665476144401</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.01351649986676</v>
+        <v>4.165321022107108</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.26719859152974</v>
+        <v>33.17469732314994</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.69230316499798</v>
+        <v>48.5116423356471</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.61627115392255</v>
+        <v>54.74995022108619</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.15955405712265</v>
+        <v>8.807189670436131</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.46011100705122</v>
+        <v>37.81945472220509</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.96646087192372</v>
+        <v>7.050428661227286</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.40326670370581</v>
+        <v>36.05979212700659</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.10370675223505</v>
+        <v>51.39683930979932</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.00789719093168</v>
+        <v>57.63514708504108</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.57318433604562</v>
+        <v>11.69259839935405</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.13783505979541</v>
+        <v>40.70485061011478</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>20.25806221876592</v>
+        <v>1.515995912851807</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.54086051812746</v>
+        <v>30.52530155531333</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.86907966546561</v>
+        <v>45.86193119951538</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>21.34225770131093</v>
+        <v>52.10026712553299</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.41253976865474</v>
+        <v>6.157542317928986</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>23.73265341015803</v>
+        <v>35.16973670907926</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.98470828661571</v>
+        <v>48.28385976479713</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.69444382071506</v>
+        <v>54.52374063223176</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.97048266078697</v>
+        <v>12.23220319861942</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.36469662980159</v>
+        <v>41.24414355162033</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.30639299650709</v>
+        <v>56.5821003897416</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.28739359285873</v>
+        <v>62.82202233376786</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.72431678877227</v>
+        <v>53.15710253943992</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.24902576561323</v>
+        <v>59.39699206610551</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.02402477804583</v>
+        <v>17.1048552084131</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.22277275733624</v>
+        <v>46.11701129622004</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.81150453515595</v>
+        <v>61.45541094878111</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>42.3832392950648</v>
+        <v>67.69534155027516</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.9338228630819</v>
+        <v>56.04260060264365</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.58794456842746</v>
+        <v>62.28249001811692</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.60865139471284</v>
+        <v>19.99028878846714</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.04302563329683</v>
+        <v>49.00243203238649</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>40.35664110968635</v>
+        <v>64.34093385830654</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.01971738869731</v>
+        <v>70.58086434824993</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.76627419639043</v>
+        <v>50.50706912799588</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.32895725495374</v>
+        <v>56.7469866969529</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.31118740870961</v>
+        <v>14.45524334143825</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.32736960379698</v>
+        <v>43.4673287729649</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.37755628708248</v>
+        <v>58.80541302892864</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.96670589191258</v>
+        <v>65.04537167367501</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.0158100773964</v>
+        <v>-16.29135774982971</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.7086983882342</v>
+        <v>12.71669673749155</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.73147944522896</v>
+        <v>28.05206953690181</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.03643762758417</v>
+        <v>34.29046838998745</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.35090329187275</v>
+        <v>-11.65006339251072</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.25545132851478</v>
+        <v>17.36087982130546</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.71960927043973</v>
+        <v>-11.41951775774253</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.04731833324075</v>
+        <v>17.58875245978841</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.42812294444412</v>
+        <v>32.92456802344095</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.31712715405789</v>
+        <v>39.16297553172861</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.54851501318214</v>
+        <v>-6.777603936727857</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.99368708158945</v>
+        <v>22.23355501627493</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.74760327436506</v>
+        <v>-8.534420302814894</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.24473103295073</v>
+        <v>20.47383708113871</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.96018377902021</v>
+        <v>35.80975481452681</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.82722291233873</v>
+        <v>42.04816221317226</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.99849449028182</v>
+        <v>-3.892205393415381</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.69933854078388</v>
+        <v>25.1189407198154</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.0438695545734</v>
+        <v>-14.06880077552232</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.36034708382533</v>
+        <v>14.93939878381669</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.55936538909294</v>
+        <v>30.274898987638</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.06527793630688</v>
+        <v>36.51333453573586</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.51323934349322</v>
+        <v>-9.427209199322235</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.03078644239813</v>
+        <v>19.58387909311746</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.45181808591042</v>
+        <v>32.69695531409248</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.15520110142148</v>
+        <v>38.93693581341343</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.89314057703442</v>
+        <v>-3.351490419119543</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.52730951877779</v>
+        <v>25.65934388162243</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.740501842121</v>
+        <v>40.9961712259837</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.73544987960855</v>
+        <v>47.23619280556836</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.96349159281825</v>
+        <v>37.57007330725442</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.46657295400465</v>
+        <v>43.81006246870875</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.52652230558025</v>
+        <v>1.521036838494936</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.8430971388764</v>
+        <v>30.53208687018169</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.19802222211501</v>
+        <v>45.86935701387206</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.75135607586461</v>
+        <v>52.10938725360161</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.22580885644815</v>
+        <v>40.45556118552413</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.8598710624775</v>
+        <v>46.69555023615062</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.13789192153529</v>
+        <v>4.406460232463317</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.68424783050547</v>
+        <v>33.41749742185819</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.78073841767502</v>
+        <v>48.75486973691063</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>39.42668642978515</v>
+        <v>54.99489986572117</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.5040896859447</v>
+        <v>34.92008199468587</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.07122015278924</v>
+        <v>41.16009919702351</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.42876882794608</v>
+        <v>-1.128532945190884</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.63463888090224</v>
+        <v>27.88244643011701</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.13981443606836</v>
+        <v>43.21940118597168</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.74388625470654</v>
+        <v>49.45945946836351</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.76313475684814</v>
+        <v>-10.12443328638749</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.54636559625269</v>
+        <v>18.88424615590095</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.46012599346938</v>
+        <v>34.22011901257333</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.76063346101049</v>
+        <v>40.45840077140731</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.29507142518714</v>
+        <v>-5.482951414609985</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.28628409304472</v>
+        <v>23.52861675177617</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.72305985908181</v>
+        <v>-5.252573749947757</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.12013378555103</v>
+        <v>23.75632142526042</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.81236932850998</v>
+        <v>39.09263704983023</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.67166184625004</v>
+        <v>45.33092746217126</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>18.5348289713877</v>
+        <v>-0.6104724174021356</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.07416801882531</v>
+        <v>28.40131149081999</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>19.71572388133741</v>
+        <v>-2.367479382745884</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.28878862828554</v>
+        <v>26.64140295764055</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.30249824643664</v>
+        <v>41.97782075126845</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.13667789102468</v>
+        <v>48.21611105400537</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.91436930091157</v>
+        <v>2.27492303578795</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.72599617192567</v>
+        <v>31.28669410316884</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.1072487414769</v>
+        <v>-7.901848795241833</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.44769791516344</v>
+        <v>21.10697572109207</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.86623189029535</v>
+        <v>36.44297598456008</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.36320870010574</v>
+        <v>42.68129443666028</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.53103095040242</v>
+        <v>-3.260069705680777</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.09190630110384</v>
+        <v>25.75164354166652</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.74121919654401</v>
+        <v>38.8651923885953</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.46192813428665</v>
+        <v>45.10505577370368</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.86558169745464</v>
+        <v>2.815178926827528</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.57985014072875</v>
+        <v>31.82663814704809</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.07570177447559</v>
+        <v>47.1639656387152</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.09225174441509</v>
+        <v>53.40387010742604</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.66990760759506</v>
+        <v>43.73832993028937</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.15334425535158</v>
+        <v>49.97820197575398</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.42210069919105</v>
+        <v>7.687725722191956</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.85515336311818</v>
+        <v>36.69940067577575</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>42.79213680956901</v>
+        <v>52.03717097096883</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.3266187458815</v>
+        <v>58.27708409830821</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.83061756042055</v>
+        <v>46.62381471674924</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.44565788095418</v>
+        <v>52.86368665141272</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.9646115821623</v>
+        <v>10.57314602624758</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.64240901474261</v>
+        <v>39.58480813620049</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.27030500740388</v>
+        <v>54.92268060340366</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.8992464386009</v>
+        <v>61.16259361933449</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.80684335575908</v>
+        <v>41.08834659004795</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.39723463650981</v>
+        <v>47.32824667692155</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.53340224325733</v>
+        <v>5.038163914362329</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.7663412595415</v>
+        <v>34.04976821139128</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.60200882590556</v>
+        <v>49.38722311775525</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.23101486187644</v>
+        <v>55.62716428766687</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.27305367944138</v>
+        <v>-14.88437412235207</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.91881110817563</v>
+        <v>14.12400573643784</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.14746372392347</v>
+        <v>29.45971513860077</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.45023663982184</v>
+        <v>35.69798389540081</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.51595673916884</v>
+        <v>-10.24311551068369</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.37908112451031</v>
+        <v>18.76815308767091</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>20.99004565420282</v>
+        <v>-10.01252646189225</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.25999762576824</v>
+        <v>18.99606912824102</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.83514909371435</v>
+        <v>34.33222129791211</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.7204613071983</v>
+        <v>40.57049870891576</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>18.86924771174284</v>
+        <v>-5.370648386292302</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.23440685888614</v>
+        <v>23.64083595318353</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.04016154856922</v>
+        <v>-7.12742387518135</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.47598536788256</v>
+        <v>21.88115888086425</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.41048241474859</v>
+        <v>37.21741322043449</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.27135225863254</v>
+        <v>43.45569052194487</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.28388378284986</v>
+        <v>-2.485244710271601</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.9140880551025</v>
+        <v>26.5262267889802</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.48481507611364</v>
+        <v>-12.66180864070104</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.70789358727988</v>
+        <v>16.34671629122711</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.27201051861382</v>
+        <v>31.68255309886918</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.77307464434963</v>
+        <v>37.92085854976467</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.69528183716739</v>
+        <v>-8.020252809900896</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.17114873989865</v>
+        <v>20.9911608691378</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.65951477445885</v>
+        <v>34.10456522493992</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.3738800492461</v>
+        <v>40.34441561532044</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.14823074751772</v>
+        <v>-1.94451420316004</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.72005559386129</v>
+        <v>27.06664547503665</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.10314854622411</v>
+        <v>42.40380946794672</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.1111281178601</v>
+        <v>48.64370094262661</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>34.46309755128638</v>
+        <v>38.97769089181197</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.96064033814535</v>
+        <v>45.21754994352052</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.72062454086742</v>
+        <v>2.928020723245552</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.98661059034218</v>
+        <v>31.93939613377491</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.47588515531587</v>
+        <v>47.27700292965001</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>42.02232716552972</v>
+        <v>53.51690306356996</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.67940229452777</v>
+        <v>41.86318390237996</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.3066029378499</v>
+        <v>48.10304284330375</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.29550793752566</v>
+        <v>5.813449250982515</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.80008624517899</v>
+        <v>34.82481181824694</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.00696361341889</v>
+        <v>50.16252078632415</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>39.64617894108908</v>
+        <v>56.40242080903336</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.79022975746913</v>
+        <v>36.32770041621025</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.35525360010479</v>
+        <v>42.56758750902709</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.44485455201727</v>
+        <v>0.2784517795370931</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.64888074500467</v>
+        <v>29.28975653389848</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.17951085719164</v>
+        <v>44.62704793969517</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.77533380593182</v>
+        <v>50.86697611610892</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.14991299010835</v>
+        <v>-18.46138448088588</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.7975584514195</v>
+        <v>10.54631523570613</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.9148538913293</v>
+        <v>25.88150123872249</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>18.18567098424138</v>
+        <v>32.11967440947883</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.75701444414682</v>
+        <v>-13.81993783951388</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.52574311911967</v>
+        <v>15.19065055967231</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>20.19497920720457</v>
+        <v>-13.58966821414803</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.54584763955403</v>
+        <v>15.4182472293498</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.00346128376673</v>
+        <v>30.75387598823927</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.938756197246</v>
+        <v>36.99205781366534</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.20752766283393</v>
+        <v>-8.947602121405609</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.61979638454671</v>
+        <v>20.06320201408205</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.28737104637782</v>
+        <v>-10.7046212866923</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.79573054000936</v>
+        <v>18.30328132324571</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.64046384881905</v>
+        <v>33.63901224907393</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.55121741044293</v>
+        <v>39.87719396495852</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.70609313786629</v>
+        <v>-6.062254112806542</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.36803128854005</v>
+        <v>22.94853718324676</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.1182915852829</v>
+        <v>-16.23887853799651</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.38347839420404</v>
+        <v>12.76896624818967</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.36021253697015</v>
+        <v>28.10427965336358</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>20.8785691985138</v>
+        <v>34.34248951741911</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.72410059873743</v>
+        <v>-11.59713468387058</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.16139390397559</v>
+        <v>17.41359879257773</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>20.83413519062469</v>
+        <v>30.52653928970126</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.51035103478671</v>
+        <v>36.76629407003209</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.37096032363764</v>
+        <v>-5.521289433002309</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.85795467144585</v>
+        <v>23.48919005009516</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.2782908830881</v>
+        <v>38.82583063271848</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.23490715643737</v>
+        <v>45.06562649870166</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.59978107659246</v>
+        <v>35.39953353395295</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.11687960809747</v>
+        <v>41.63929697572094</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.97171839205073</v>
+        <v>-0.6488859114814858</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.30328653001937</v>
+        <v>28.36180929899406</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>40.49490826585853</v>
+        <v>43.6988926728696</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>40.06045025932895</v>
+        <v>49.93869719854167</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.95586419377495</v>
+        <v>38.28497087513706</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.59572978973765</v>
+        <v>44.5247342063097</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.61366904118735</v>
+        <v>2.236486947611027</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.17220744974852</v>
+        <v>31.24716931611233</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.13770601263739</v>
+        <v>46.58435486008246</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.7899569109666</v>
+        <v>52.8241592743628</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.4550628438277</v>
+        <v>32.74961492918699</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.97781740022219</v>
+        <v>38.98940641114628</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.42769191547563</v>
+        <v>-3.298382996867232</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.59943696659072</v>
+        <v>25.71224155889782</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.76165009057468</v>
+        <v>41.0490095514884</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.32363881793364</v>
+        <v>47.28884211865962</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.42360370672901</v>
+        <v>-12.34284154519939</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.33422528975468</v>
+        <v>16.66613291712356</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.84584989558028</v>
+        <v>32.00286800436488</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.22637246826791</v>
+        <v>38.24141593328075</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.35184013519528</v>
+        <v>-7.701789207303293</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.67015948015688</v>
+        <v>21.31007403033534</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.7862043852768</v>
+        <v>-7.470760155843479</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.43533613302941</v>
+        <v>21.53843004114658</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.44582610269317</v>
+        <v>36.87560792093059</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.17637592524065</v>
+        <v>43.1141645036375</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.51306997550757</v>
+        <v>-2.829088338826793</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.57151185842683</v>
+        <v>26.1829906429361</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>19.50943214317907</v>
+        <v>-4.585535552182861</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.38978763440718</v>
+        <v>24.42364180975183</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.53499786942907</v>
+        <v>39.7609218642544</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.24341630509326</v>
+        <v>45.99947833727363</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>19.37930891526203</v>
+        <v>0.0564373614731295</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.81680801256814</v>
+        <v>29.06850350243504</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.52917727169501</v>
+        <v>-10.12014772339698</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.91531854792217</v>
+        <v>18.88897181429338</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.49036042742292</v>
+        <v>34.22583431713095</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.87594763098232</v>
+        <v>40.46441894137338</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.19379279132002</v>
+        <v>-5.478798159359187</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.63144293130738</v>
+        <v>23.5332101612898</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.76843495222717</v>
+        <v>36.64751185777909</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.594016692297</v>
+        <v>42.88764149422236</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.7546104263591</v>
+        <v>0.5966111363253077</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.84456494120285</v>
+        <v>29.60836543872456</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.8333230731967</v>
+        <v>44.94655514382971</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.94531117060388</v>
+        <v>51.18672585367979</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.22027568501314</v>
+        <v>41.52087129693253</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.80327951148998</v>
+        <v>47.7610095942435</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.44247285855938</v>
+        <v>5.469379800298682</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.40663809850609</v>
+        <v>34.48134983797486</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.42595991652038</v>
+        <v>49.81998237061107</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.05334131830132</v>
+        <v>56.06016173939811</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.56723165233313</v>
+        <v>44.40648633614985</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.31579208973589</v>
+        <v>50.6466245225625</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.59809613335891</v>
+        <v>8.354930349802842</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.88286338259888</v>
+        <v>37.36688754380198</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>46.28649977374485</v>
+        <v>52.70562225362023</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.04143675998378</v>
+        <v>58.94580151117334</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.46008781438997</v>
+        <v>38.87077540797254</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.33746081983072</v>
+        <v>45.11094174819864</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.56149796062114</v>
+        <v>2.819705465144537</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.63011028304127</v>
+        <v>31.83160484568425</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.85327387891586</v>
+        <v>47.16992197327802</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.70965892211044</v>
+        <v>53.41012938645152</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>21.10558112821823</v>
+        <v>-13.06616285577438</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.78737312033461</v>
+        <v>15.94217865720107</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>18.00940601152522</v>
+        <v>31.27773137116431</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>18.30138396918144</v>
+        <v>37.51606276138837</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>19.18929092170988</v>
+        <v>-8.425036992404713</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.11986788664846</v>
+        <v>20.58619324320905</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.25491919045186</v>
+        <v>-8.194319465251894</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.440419099947</v>
+        <v>20.8142377788691</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.18203286920639</v>
+        <v>36.15023325732768</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.06562971909782</v>
+        <v>42.38857330194578</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.96328380518773</v>
+        <v>-3.552574140818294</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.26776174531746</v>
+        <v>25.4588718352589</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.36207961461426</v>
+        <v>-5.309230142038743</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.70319336838062</v>
+        <v>23.6993142677622</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.8516493116039</v>
+        <v>39.03541191562165</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.71109188299899</v>
+        <v>45.27375185076035</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>17.40828474170504</v>
+        <v>-0.6671837302746297</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.97253800934802</v>
+        <v>28.34424940557967</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.75678226332118</v>
+        <v>-10.84359732149055</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.89244475551539</v>
+        <v>18.1648892640538</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.59237259812365</v>
+        <v>33.50056938267865</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.13116024645527</v>
+        <v>39.73893746716051</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>19.60760756247702</v>
+        <v>-6.202174241280588</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.08496418910977</v>
+        <v>22.80920107440234</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.19661485786844</v>
+        <v>35.92244868717837</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>20.89892512154605</v>
+        <v>42.16236170576913</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.77215061234983</v>
+        <v>-0.1267002697258448</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>23.42285278670869</v>
+        <v>28.88442103822474</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.55812393416315</v>
+        <v>44.2214283329434</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.55560989576849</v>
+        <v>50.46138243408957</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.41170971418138</v>
+        <v>40.79557007862964</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.91515395508056</v>
+        <v>47.03549175865096</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.73387853123126</v>
+        <v>4.745830382222678</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.95614577022236</v>
+        <v>33.75716742202083</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.27424853567565</v>
+        <v>49.09461751729243</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.83194336365847</v>
+        <v>55.33458027771242</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.68009921269855</v>
+        <v>43.68104982329983</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.31362730607059</v>
+        <v>49.92097139264349</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.33356050958891</v>
+        <v>7.631245644008757</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.79030293298778</v>
+        <v>36.64256984078061</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.84621836442818</v>
+        <v>51.98012210768361</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.49769073897184</v>
+        <v>58.22008475701701</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>23.53049643559943</v>
+        <v>38.14558392865622</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.10877878371855</v>
+        <v>44.38553364961133</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.27651079724637</v>
+        <v>2.096265761533417</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.49964331771018</v>
+        <v>31.10753214523625</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.78862574067903</v>
+        <v>46.4446668527341</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.40381453812766</v>
+        <v>52.68465765605079</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.17644572391835</v>
+        <v>-1.330117659086611</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.06827762518512</v>
+        <v>27.67925922047</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.22003590074386</v>
+        <v>43.01625982660069</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.54778941495706</v>
+        <v>49.25484180364204</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.93598631867354</v>
+        <v>3.311156114937447</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.96304428995268</v>
+        <v>32.32342176634286</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.19341414463521</v>
+        <v>3.54200661385876</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.79329399311495</v>
+        <v>32.55159922993887</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.6662048660466</v>
+        <v>47.88904263059699</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.75449802787929</v>
+        <v>54.12763326086595</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.50129282308384</v>
+        <v>8.183899866056962</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.7884164285734</v>
+        <v>37.19638126333321</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.22749976935989</v>
+        <v>6.427207572757951</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.00674222728556</v>
+        <v>35.43678735315309</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.23340038923133</v>
+        <v>50.77433292800511</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.30683397083767</v>
+        <v>57.01292344802501</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.92829965077527</v>
+        <v>11.06940191954409</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.49949534848265</v>
+        <v>40.08187047527504</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.37519557274655</v>
+        <v>0.8926088506718344</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.3517670381782</v>
+        <v>29.90213080742792</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.9214513239856</v>
+        <v>45.23925882987915</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.50985722354186</v>
+        <v>51.47787750189646</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.87060220081018</v>
+        <v>5.534179851027787</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.11317200974742</v>
+        <v>34.546590586763</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.15808486580239</v>
+        <v>47.66112513396952</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.7927041104537</v>
+        <v>53.90128880844868</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.96074608449272</v>
+        <v>11.60882944396231</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.90128579595423</v>
+        <v>40.62098614008876</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.83137203916571</v>
+        <v>55.9594413658494</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.6546976032208</v>
+        <v>62.1996461097353</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.89798762345998</v>
+        <v>52.53452745920988</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.61881860284726</v>
+        <v>58.77469979394739</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.01391375367182</v>
+        <v>16.48164098532295</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.53890595058914</v>
+        <v>45.49401341820528</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.72502506553711</v>
+        <v>60.83291147332837</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.48561495559669</v>
+        <v>67.07312487546876</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.22659661137649</v>
+        <v>55.42011885067389</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.07757749089057</v>
+        <v>61.6602910742666</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.67228475048402</v>
+        <v>19.3671678885773</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.43087279476329</v>
+        <v>48.37952747705556</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>44.45204447354637</v>
+        <v>63.71852770944209</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.31894801574693</v>
+        <v>69.95874099995156</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.05227994016209</v>
+        <v>49.88442137479451</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.84323801591418</v>
+        <v>56.12462175262108</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.23922322292539</v>
+        <v>13.83195645746044</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.56774751403584</v>
+        <v>42.8442582330684</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.25578035679521</v>
+        <v>58.18284088267815</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.00296330519845</v>
+        <v>64.42308232933142</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.99415604578654</v>
+        <v>-7.932184768717818</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.85464816186488</v>
+        <v>21.0762168248212</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.47009292411398</v>
+        <v>36.41284423960174</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.43321857558034</v>
+        <v>42.65125137128003</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.95519850118399</v>
+        <v>-3.290994538525794</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.69355081204822</v>
+        <v>25.72029574907408</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.08570885972802</v>
+        <v>-3.060192161480401</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.3229852625559</v>
+        <v>25.94842516163938</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.50907182492018</v>
+        <v>41.28549536161184</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.22323484987189</v>
+        <v>47.52391114620475</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.56073433248184</v>
+        <v>1.581617531505984</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.87454427190526</v>
+        <v>30.59312355787536</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.30962533554277</v>
+        <v>-0.1750367969543021</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.47125221377232</v>
+        <v>28.83356769154541</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.76876659607885</v>
+        <v>44.17074006441938</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.50253526369353</v>
+        <v>50.40915573910964</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.61599616575607</v>
+        <v>4.467073983796084</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.9166904598609</v>
+        <v>33.47856716963993</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.58183452706721</v>
+        <v>-5.709517858108867</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.60461853898431</v>
+        <v>23.29902880787331</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.74693729811115</v>
+        <v>38.63578363667939</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.67851755266753</v>
+        <v>44.87422746257671</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.6647412668657</v>
+        <v>-1.068030409551668</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.60088762273039</v>
+        <v>27.94340495769593</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.99130072196889</v>
+        <v>41.05762591347816</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.98411641453834</v>
+        <v>47.29761471352954</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.89788084799422</v>
+        <v>5.006843723743899</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.61695240770825</v>
+        <v>34.01802506690372</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.7265583985431</v>
+        <v>49.35610708551003</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.74743166184015</v>
+        <v>55.59613695475055</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.13567622041808</v>
+        <v>45.93089654165586</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.24544756246223</v>
+        <v>52.17089400163634</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.70154317060204</v>
+        <v>9.879523583734183</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.79648504097546</v>
+        <v>38.89092065710777</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.9977143406683</v>
+        <v>54.22944549669587</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.01536026074734</v>
+        <v>60.46948402380822</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.22329255089615</v>
+        <v>48.81644233119739</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.32590000097809</v>
+        <v>55.05643967998761</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.80800385266132</v>
+        <v>12.76500488404299</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.88262036796763</v>
+        <v>41.77638911401171</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.17095563121114</v>
+        <v>57.11501612926436</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.1737845446183</v>
+        <v>63.35505454492314</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.30994252581252</v>
+        <v>43.28086254087403</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.5161800139594</v>
+        <v>49.52088804334285</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.57362936424762</v>
+        <v>7.22991112826044</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.33246232062704</v>
+        <v>36.2412375469906</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.80119960599694</v>
+        <v>51.57944698768854</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>33.98093010267956</v>
+        <v>57.8195135587742</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.61872601193416</v>
+        <v>-9.844056868014192</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.1884541917434</v>
+        <v>19.16530718484326</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.84229072909108</v>
+        <v>34.50170870155701</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.15780479493987</v>
+        <v>40.74028167761658</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.18884982727204</v>
+        <v>-5.202731216793424</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.08637711450049</v>
+        <v>23.8095216408171</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.60140483249374</v>
+        <v>-4.971997554911624</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.51282580369102</v>
+        <v>24.03758223585756</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.35357506538125</v>
+        <v>39.37442653823264</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.23869809101294</v>
+        <v>45.6130081684508</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.54466925416929</v>
+        <v>-0.3300524217808487</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.41490031445133</v>
+        <v>28.68241618256953</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.69065824225981</v>
+        <v>-2.086796707899154</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.76600359731925</v>
+        <v>26.92277024756909</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.02341593052821</v>
+        <v>42.25971672410692</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.88394007050663</v>
+        <v>48.4982982446182</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.84039523518011</v>
+        <v>2.555449522304301</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.00514324395854</v>
+        <v>31.56790528589791</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.22852685321733</v>
+        <v>-7.621382095596388</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.03758544111119</v>
+        <v>21.38812703471793</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.93251532565039</v>
+        <v>36.72465596337493</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.49078389058803</v>
+        <v>42.96326563459134</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.55330255421709</v>
+        <v>-2.979759217493708</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.76111149946922</v>
+        <v>26.03263872466898</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.03674174243414</v>
+        <v>39.14662591932718</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.782736775604</v>
+        <v>45.38678058549677</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.5901554500476</v>
+        <v>3.095608966729472</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.26689393364992</v>
+        <v>32.10775288336318</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.17114410782072</v>
+        <v>47.44560903280974</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.1905605274469</v>
+        <v>53.68580477928829</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.70771084155515</v>
+        <v>44.01996328190053</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.28555828871029</v>
+        <v>50.26012660917361</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.08518773869348</v>
+        <v>7.968355559986165</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.93715811258113</v>
+        <v>36.98071521523816</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.15665810228519</v>
+        <v>52.3190141861116</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>43.79687405261372</v>
+        <v>58.5592185916782</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.75631234555709</v>
+        <v>46.90555456348643</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.4793520098418</v>
+        <v>53.14571778013926</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.57362716827305</v>
+        <v>10.85388235506862</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.68368523684793</v>
+        <v>39.86622916655229</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.55955392058326</v>
+        <v>55.20463031350421</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.31155416247582</v>
+        <v>61.44483460776276</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.71687227110448</v>
+        <v>41.36987042057338</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.44336621371929</v>
+        <v>47.61006179031854</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.00340262977223</v>
+        <v>5.318684247553009</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.02996919742963</v>
+        <v>34.33097324463365</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.65507534682955</v>
+        <v>49.66895681450474</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.38581302016837</v>
+        <v>55.9091892638432</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.84061914273961</v>
+        <v>-13.0057991289538</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.05752357293179</v>
+        <v>16.00247503040289</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.21835540380027</v>
+        <v>31.33875397287154</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.54071312676842</v>
+        <v>37.57717722268599</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.05143235795151</v>
+        <v>-8.364655593014547</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.57774100166721</v>
+        <v>20.64650728548459</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.4261354798816</v>
+        <v>-8.133834104572017</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.95382547863941</v>
+        <v>20.87465578458792</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.38134235122826</v>
+        <v>36.21137750832754</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.38204507487586</v>
+        <v>42.44980941206605</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.76983469227171</v>
+        <v>-3.492071101483631</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.81846342782261</v>
+        <v>25.51930751616142</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.42916749259264</v>
+        <v>-5.2486754768385</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.14100265047016</v>
+        <v>23.75980157789873</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.89730578502315</v>
+        <v>39.09662547390617</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.88066633750779</v>
+        <v>45.33505726793415</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.02671434578438</v>
+        <v>-0.6066113840936822</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.38703486290281</v>
+        <v>28.40475439351651</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.26332291258817</v>
+        <v>-10.78316256062014</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.77977778131981</v>
+        <v>18.22525667117596</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.02530695397463</v>
+        <v>33.56166302490097</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.541800221275</v>
+        <v>39.80012296931996</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.94674102545143</v>
+        <v>-6.141721804756955</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.67952847831427</v>
+        <v>22.86958615347858</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.49379801733355</v>
+        <v>35.98348893765576</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.15265435807683</v>
+        <v>42.22349386644437</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.28643769868328</v>
+        <v>-0.06636489312226956</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.66374860043329</v>
+        <v>28.94468905881816</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.45912037810377</v>
+        <v>44.28242256703614</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.3291619928809</v>
+        <v>50.52246856933114</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.76711463160912</v>
+        <v>40.85673198369473</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.48030860477498</v>
+        <v>47.09674557299066</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.84800039704655</v>
+        <v>4.806287393417691</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.00227191408809</v>
+        <v>33.81755707581438</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.50939859019194</v>
+        <v>49.15573340047736</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>44.26620317626289</v>
+        <v>55.39578806164737</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.79205364585332</v>
+        <v>43.74228103803701</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.64889766757607</v>
+        <v>49.98229451668358</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.35431287818069</v>
+        <v>7.691771959698329</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.7679014181396</v>
+        <v>36.70302879891024</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>41.97051055456748</v>
+        <v>52.0413072985295</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>41.84244529609823</v>
+        <v>58.28136184825117</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.64598814182186</v>
+        <v>38.2066952213731</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.43822822323057</v>
+        <v>44.44673685301252</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.80949845973296</v>
+        <v>2.156672174062535</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.51162396295162</v>
+        <v>31.16787120118904</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.62426073258359</v>
+        <v>46.50573212819377</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.38265482358568</v>
+        <v>52.74581483275649</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.96227983618399</v>
+        <v>-9.716513301397001</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>27.8281535213283</v>
+        <v>19.29173558687906</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.42093503727087</v>
+        <v>34.62827591893377</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.38189914360629</v>
+        <v>40.86668910672843</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.90623851077749</v>
+        <v>-5.075442310527976</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.65137284192988</v>
+        <v>23.93569526797394</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.01250335997062</v>
+        <v>-4.844530315921745</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.25899986695871</v>
+        <v>24.16393430111573</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.35580408939978</v>
+        <v>39.50091741698482</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.07275419690729</v>
+        <v>45.73933925797014</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.43869717531423</v>
+        <v>-0.2028398623903485</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.77104062578603</v>
+        <v>28.80851345341019</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>31.24525489388436</v>
+        <v>-1.959374822536276</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.41434339088365</v>
+        <v>27.04907696025073</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>34.62803746509358</v>
+        <v>42.38616224821529</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.36475018168954</v>
+        <v>48.62458397952919</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.50244440371861</v>
+        <v>2.682616718507873</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.81988465234532</v>
+        <v>31.69395719429367</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.54526738905859</v>
+        <v>-7.493854810023933</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.57246760239718</v>
+        <v>21.51453915023235</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.66483311314949</v>
+        <v>36.85120689534536</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.59844861938911</v>
+        <v>43.08965677755289</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.61416134550698</v>
+        <v>-2.852486601172515</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.55787207273212</v>
+        <v>26.15879605616404</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>27.8957664837577</v>
+        <v>39.27293833258962</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>27.88530429340707</v>
+        <v>45.51293319173699</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>27.84592915495699</v>
+        <v>3.222504517225573</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.57264756069338</v>
+        <v>32.23353315680625</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>27.62734359404793</v>
+        <v>47.57152807571136</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>27.64422603006017</v>
+        <v>53.81156400421237</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>39.88351787620834</v>
+        <v>44.14619933624233</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>39.99682687125206</v>
+        <v>50.38620285567875</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.59006019160814</v>
+        <v>8.095174756139343</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.70125928284128</v>
+        <v>37.10641912470858</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>41.7620332456324</v>
+        <v>52.44485686305821</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.78254948068202</v>
+        <v>58.68490144975972</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>39.98418580851847</v>
+        <v>47.03174525478717</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.0899591848665</v>
+        <v>53.27174866338494</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.70412797354696</v>
+        <v>10.98065618503036</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.79350213318255</v>
+        <v>39.99188771047132</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.94728271492657</v>
+        <v>55.33042762431019</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>41.95253837696619</v>
+        <v>61.57047209979505</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>32.2062214089458</v>
+        <v>41.49616653845176</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.41112811999422</v>
+        <v>47.7361981003249</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.50932450627392</v>
+        <v>5.445563502814665</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.27795028056537</v>
+        <v>34.45673721684416</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.67412398029941</v>
+        <v>49.79485955702962</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.85366680007816</v>
+        <v>56.03493218774902</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>21.06334412022183</v>
+        <v>-6.21851047698037</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>23.80702565203421</v>
+        <v>22.79035532732139</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.77216651948529</v>
+        <v>38.12706054989788</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>18.14595466556611</v>
+        <v>44.36546491327836</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.76518466417001</v>
+        <v>-1.577301197077119</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>22.91437789989595</v>
+        <v>27.43445335787835</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>21.44204789050602</v>
+        <v>-1.346491971350517</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.85951681504252</v>
+        <v>27.66258956560678</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.94182752905675</v>
+        <v>42.99973757476387</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.72142256267173</v>
+        <v>49.23815059128715</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>20.95935260477605</v>
+        <v>3.29533677962236</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.03832156470781</v>
+        <v>32.30730707676487</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>20.2344607494959</v>
+        <v>1.538669495710067</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.87071714179777</v>
+        <v>30.54773819857515</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.1337155818838</v>
+        <v>45.88498837994219</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>27.89122379290755</v>
+        <v>52.12340128662886</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.94209882768534</v>
+        <v>6.180799339781018</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>24.3764014938916</v>
+        <v>35.19275679647622</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.95686291005115</v>
+        <v>-3.995845309782041</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.20458128477839</v>
+        <v>25.01316556923025</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>23.87660596146928</v>
+        <v>40.34999820484627</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>23.28353218830078</v>
+        <v>46.58843926271147</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.23444964592215</v>
+        <v>0.6456611930520495</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>23.62606433056555</v>
+        <v>29.65756082993626</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>20.03165442539214</v>
+        <v>42.77186133810763</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>20.83715383754721</v>
+        <v>49.01184737211459</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>19.22222833088637</v>
+        <v>6.720694038293189</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>23.13295607621626</v>
+        <v>35.73233965450954</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>20.20178477562932</v>
+        <v>51.07049948769402</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>21.28881994847697</v>
+        <v>57.31052659523159</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.52768272261973</v>
+        <v>47.64515787779972</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>39.10901099626027</v>
+        <v>53.885152571755</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.92561261013026</v>
+        <v>11.59339980883688</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.90009489019234</v>
+        <v>40.60526115900582</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>47.75165510514795</v>
+        <v>55.9438638136689</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>47.38299868106815</v>
+        <v>62.1838995792718</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>36.06086744309028</v>
+        <v>50.53070977497369</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>35.8011963359695</v>
+        <v>56.77070435774108</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>24.17184808326729</v>
+        <v>14.47888721893067</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>28.44908255067166</v>
+        <v>43.49073572589448</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>44.75847465215021</v>
+        <v>58.82944055585297</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>44.51161055409681</v>
+        <v>65.06947620989042</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>25.18033426065126</v>
+        <v>44.99509622802334</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>26.0018477588546</v>
+        <v>51.23511896438295</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>26.41130526649988</v>
+        <v>8.94375970694712</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28.47248934955874</v>
+        <v>37.9555504013169</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>35.27795297183786</v>
+        <v>53.29383765530027</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>36.08042919145929</v>
+        <v>59.53390146457794</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>21.45824448577403</v>
+        <v>-8.292734617712014</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>24.09336018936938</v>
+        <v>20.7166664736596</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>18.58414817885653</v>
+        <v>36.053179613365</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>18.93006312836427</v>
+        <v>42.29176085897673</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>19.01809508362228</v>
+        <v>-3.651412643069236</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.03307996148664</v>
+        <v>25.36087725019804</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>22.77639586169023</v>
+        <v>-3.420657357417483</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.77349192003862</v>
+        <v>25.58895947239212</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>32.34016151891738</v>
+        <v>40.92591539944358</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>31.17434486194928</v>
+        <v>47.16450529881713</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>21.11974929957371</v>
+        <v>1.221284099856987</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>26.00727152615968</v>
+        <v>30.2337897407095</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>21.74522003684569</v>
+        <v>-0.5354536377641779</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>25.92907861081526</v>
+        <v>28.47415035666968</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>30.8229398392576</v>
+        <v>43.81120845734365</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.63281293218219</v>
+        <v>50.04979824705136</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>19.28185697845217</v>
+        <v>4.106788915681662</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>24.48990902985652</v>
+        <v>33.11928171552491</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>22.04890710377681</v>
+        <v>-6.070048013222547</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>24.964815204746</v>
+        <v>22.93949815592312</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>25.08796401305856</v>
+        <v>38.27613870818989</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>24.60003281403961</v>
+        <v>44.51475664899199</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>20.51567675697613</v>
+        <v>-1.428428811026876</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>23.78473576205974</v>
+        <v>27.58400616717581</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>20.14815412561754</v>
+        <v>40.69809315265498</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>20.92880811380341</v>
+        <v>46.93825609106553</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>19.3870469019022</v>
+        <v>4.646791540330085</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.18658385456768</v>
+        <v>33.65897248986012</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>20.20585499575995</v>
+        <v>48.99694025890081</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>21.26531110549628</v>
+        <v>55.23714427575392</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.71309184742685</v>
+        <v>45.57144846466981</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.28599208676323</v>
+        <v>51.81162006403015</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>25.76083607508461</v>
+        <v>9.519556079587417</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.61098234037634</v>
+        <v>38.53195276797892</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>46.35753877652793</v>
+        <v>53.87036336033403</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.9887854834729</v>
+        <v>60.11057603624791</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.54305769283664</v>
+        <v>48.45704261898625</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.26886682087797</v>
+        <v>54.69721410731411</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>24.14386088104196</v>
+        <v>12.40508574598512</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>28.27160822388769</v>
+        <v>41.41746959069629</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>43.58837232865376</v>
+        <v>56.75598235976891</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>43.33774586405711</v>
+        <v>62.99619492454208</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>25.1320270672492</v>
+        <v>42.92134948704127</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>25.91771074279295</v>
+        <v>49.16154912894315</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>26.21501510015933</v>
+        <v>6.869878652444825</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>28.25275562949228</v>
+        <v>35.88220468262826</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>34.47090799238151</v>
+        <v>51.22029987284118</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>35.25342911171509</v>
+        <v>57.4605405926206</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-9.849191814179832</v>
+        <v>-9.849191814263165</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.15951393579128</v>
+        <v>19.15951393586472</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.49617781026241</v>
+        <v>34.49617781023024</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40.73471238457917</v>
+        <v>40.73471238453961</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-5.207913052177148</v>
+        <v>-5.207913052198293</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.80368144167171</v>
+        <v>23.80368144164284</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.97713781883958</v>
+        <v>-4.977137818855837</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.03178366329855</v>
+        <v>24.03178366329685</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.36889032705399</v>
+        <v>39.36889032703409</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>45.60743355523137</v>
+        <v>45.60743355520044</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.3352395830672066</v>
+        <v>-0.3352395830558379</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.67657065210422</v>
+        <v>28.67657065210558</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-2.091941753691955</v>
+        <v>-2.091941753732542</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.91696689386045</v>
+        <v>26.91696689384658</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.25417573122452</v>
+        <v>42.2541757311446</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>48.49271884940272</v>
+        <v>48.49271884934019</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.550257574728519</v>
+        <v>2.550257574705782</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.56205496936077</v>
+        <v>31.56205496935952</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-7.626507050242068</v>
+        <v>-7.626507050209781</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.38234377347835</v>
+        <v>21.38234377356964</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.71913506238737</v>
+        <v>36.71913506234746</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42.95770633205923</v>
+        <v>42.95770633202376</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-2.984931065300358</v>
+        <v>-2.984931065267844</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.02680850979876</v>
+        <v>26.02680850985742</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39.14104804936819</v>
+        <v>39.14104804927508</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.38116432333045</v>
+        <v>45.3811643233259</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.090240879364117</v>
+        <v>3.090240879393903</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.10172643602694</v>
+        <v>32.1017264360889</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.43984490670171</v>
+        <v>47.43984490675128</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.68000225246517</v>
+        <v>53.68000225250871</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.01438008300904</v>
+        <v>44.01438008295891</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.25450501774021</v>
+        <v>50.25450501775431</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7.962982140692887</v>
+        <v>7.962982140662191</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.97468343036503</v>
+        <v>36.97468343036412</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.31324472592731</v>
+        <v>52.313244725904</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>58.55341073031362</v>
+        <v>58.55341073029145</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.89996657913612</v>
+        <v>46.89996657908246</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.14009140294532</v>
+        <v>53.14009140286926</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.84850414736259</v>
+        <v>10.84850414747559</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.86019259383336</v>
+        <v>39.86019259382404</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.19885606557303</v>
+        <v>55.19885606559406</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.43902195911194</v>
+        <v>61.43902195905726</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.36430253604847</v>
+        <v>41.36430253602289</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>47.60445551374194</v>
+        <v>47.6044555137765</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.313326144771466</v>
+        <v>5.313326144768055</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.32495677862887</v>
+        <v>34.32495677860761</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49.66320267110105</v>
+        <v>49.66320267110071</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>55.90339672002638</v>
+        <v>55.90339672002513</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-10.1877619052148</v>
+        <v>-10.18776190518467</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.82143805142216</v>
+        <v>18.82143805148219</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.1576343626502</v>
+        <v>34.15763436264713</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>40.39600176854374</v>
+        <v>40.39600176850747</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-5.546582723299295</v>
+        <v>-5.546582723285766</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.46550601021552</v>
+        <v>23.4655060102303</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-5.315800462917466</v>
+        <v>-5.315800462819354</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23.6936152303859</v>
+        <v>23.69361523041478</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.03025431917565</v>
+        <v>39.0302543191877</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.26863037881272</v>
+        <v>45.26863037886683</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-0.6740018082743262</v>
+        <v>-0.6740018082233945</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.3383026709334</v>
+        <v>28.33830267102367</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-2.430652178000443</v>
+        <v>-2.430652178008401</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.578750680076</v>
+        <v>26.57875068005303</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.91549194050499</v>
+        <v>41.91549194047441</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>48.15386789030431</v>
+        <v>48.15386789029135</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.211447570542944</v>
+        <v>2.211447570501562</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.22373920843138</v>
+        <v>31.22373920843116</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-7.965136941082321</v>
+        <v>-7.965136941077091</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21.04420809225549</v>
+        <v>21.04420809230869</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.38053181233779</v>
+        <v>36.38053181237179</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.61893591254871</v>
+        <v>42.61893591264784</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-3.3236605352037</v>
+        <v>-3.323660535229962</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.68857328175712</v>
+        <v>25.68857328185034</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>38.80240508866105</v>
+        <v>38.80240508869606</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.04235414741898</v>
+        <v>45.04235414741431</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.751711860928324</v>
+        <v>2.751711860900016</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.76369164935086</v>
+        <v>31.76369164928049</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.10134258744922</v>
+        <v>47.10134258750914</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.3413327308037</v>
+        <v>53.34133273080131</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.67564456136138</v>
+        <v>43.67564456138821</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.91560228070962</v>
+        <v>49.91560228075816</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.624360574537334</v>
+        <v>7.62436057458099</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.63655610015003</v>
+        <v>36.63655610016413</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.97464985157167</v>
+        <v>51.97464985155473</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>58.21464865345725</v>
+        <v>58.21464865338346</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.56118327513884</v>
+        <v>46.5611832751443</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.80114088335024</v>
+        <v>52.80114088329022</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.5098348046392</v>
+        <v>10.50983480469149</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.52201748596754</v>
+        <v>39.52201748605337</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>54.8602134116572</v>
+        <v>54.86021341163924</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>61.10021210223449</v>
+        <v>61.10021210215469</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>41.02559977366771</v>
+        <v>41.02559977368465</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>47.26558553464209</v>
+        <v>47.26558553465425</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4.974737329695543</v>
+        <v>4.974737329618009</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.98686219724409</v>
+        <v>33.9868621972616</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.3246405524571</v>
+        <v>49.32464055250075</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>55.56466739745083</v>
+        <v>55.56466739751586</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-10.42902284282347</v>
+        <v>-10.42902284285474</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>18.58017715235367</v>
+        <v>18.5801771523755</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.91641528913313</v>
+        <v>33.91641528915189</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40.15476779807189</v>
+        <v>40.15476779802118</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-5.787687954702776</v>
+        <v>-5.787687954705731</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.22440082136082</v>
+        <v>23.2244008214803</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.557060998828931</v>
+        <v>-5.557060998729796</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.45235473289456</v>
+        <v>23.45235473292662</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.7890356475768</v>
+        <v>38.78903564754781</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>45.02739680985287</v>
+        <v>45.02739680984935</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-0.91510663724425</v>
+        <v>-0.9151066372644863</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.09719788479329</v>
+        <v>28.09719788485582</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-2.671910686173575</v>
+        <v>-2.671910686162434</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.33749221011256</v>
+        <v>26.33749221011165</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.67427529673996</v>
+        <v>41.67427529664162</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>47.91263634945706</v>
+        <v>47.9126363494009</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1.970344768877411</v>
+        <v>1.970344768862631</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.98263644979484</v>
+        <v>30.98263644980598</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-8.206396681777434</v>
+        <v>-8.206396681770727</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>20.80294838976359</v>
+        <v>20.8029483898036</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.13931393586638</v>
+        <v>36.13931393587366</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.3777031389438</v>
+        <v>42.37770313897416</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-3.564764569377687</v>
+        <v>-3.564764569462952</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.44746929038213</v>
+        <v>25.44746929039964</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.56134173474773</v>
+        <v>38.56134173469896</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.80127589552008</v>
+        <v>44.80127589550632</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2.510651363645323</v>
+        <v>2.510651363587456</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.52263119770676</v>
+        <v>31.52263119769493</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.8603239699665</v>
+        <v>46.86032396998162</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.10029921535893</v>
+        <v>53.10029921535711</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.43458161012957</v>
+        <v>43.434581610119</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.67452443131761</v>
+        <v>49.67452443131749</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>7.383300480014398</v>
+        <v>7.383300479947778</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.39549605111036</v>
+        <v>36.39549605116879</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.73363163713198</v>
+        <v>51.7336316371247</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.97361554089089</v>
+        <v>57.97361554078175</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>46.32012235129032</v>
+        <v>46.32012235133034</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.56006506166382</v>
+        <v>52.56006506164563</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>10.26877673747931</v>
+        <v>10.26877673741929</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.28095946468848</v>
+        <v>39.28095946477863</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.61919722499461</v>
+        <v>54.61919722495868</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>60.8591810174341</v>
+        <v>60.85918101737953</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>40.78453761745477</v>
+        <v>40.78453761747285</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>47.02450848066822</v>
+        <v>47.02450848070596</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4.733678029643514</v>
+        <v>4.733678029588035</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.74580294303912</v>
+        <v>33.74580294310472</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.08362313323967</v>
+        <v>49.08362313329447</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>55.32363508018905</v>
+        <v>55.32363508021088</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-15.51588818991392</v>
+        <v>-15.51588818988834</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>13.49274672265138</v>
+        <v>13.49274672269242</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.82933704087812</v>
+        <v>28.82933704089051</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.06777056912331</v>
+        <v>35.06777056919027</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-10.87473842980641</v>
+        <v>-10.87473842980823</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>18.13678522178891</v>
+        <v>18.13678522176049</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-10.64387652153623</v>
+        <v>-10.64387652157772</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>18.36497412283127</v>
+        <v>18.36497412279125</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.7020072288329</v>
+        <v>33.70200722877424</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.94044941032026</v>
+        <v>39.94044941022567</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-6.002107290044066</v>
+        <v>-6.002107290049295</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.00963210244795</v>
+        <v>23.00963210242101</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-7.758674150945737</v>
+        <v>-7.75867415100133</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.25016365894255</v>
+        <v>21.25016365903794</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.58729893902064</v>
+        <v>36.58729893899142</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.82574101088922</v>
+        <v>42.82574101086591</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-3.116603827870378</v>
+        <v>-3.11660382795678</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.89512272456041</v>
+        <v>25.89512272460316</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-13.29322231977214</v>
+        <v>-13.29322231978794</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.71555766666923</v>
+        <v>15.7155576667346</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.05227539870494</v>
+        <v>31.05227539865912</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>37.29074562135266</v>
+        <v>37.29074562139245</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-8.651775337609635</v>
+        <v>-8.651775337611909</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.35989339525618</v>
+        <v>20.35989339531621</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.47407829366018</v>
+        <v>33.47407829372555</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.71409351160817</v>
+        <v>39.71409351168127</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-2.576237443875286</v>
+        <v>-2.5762374439485</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.4351772713505</v>
+        <v>26.43517727143997</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.77322222397693</v>
+        <v>41.77322222393691</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.01327851618346</v>
+        <v>48.01327851620347</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.34736799615514</v>
+        <v>38.34736799612422</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.58739187424096</v>
+        <v>44.58739187424494</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.296461491356652</v>
+        <v>2.296461491333119</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.30809193892215</v>
+        <v>31.30809193897353</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.64657971432798</v>
+        <v>46.64657971437198</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.88664466476401</v>
+        <v>52.88664466476946</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.23296079715824</v>
+        <v>41.23296079721645</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>47.47298456449614</v>
+        <v>47.4729845644634</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5.181989802339174</v>
+        <v>5.181989802362025</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>34.19360740647376</v>
+        <v>34.1936074064791</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>49.53219735891408</v>
+        <v>49.53219735894682</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>55.77226219830546</v>
+        <v>55.77226219828044</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.69731388510623</v>
+        <v>35.69731388516443</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.9373658060011</v>
+        <v>41.93736580600928</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.353171072143752</v>
+        <v>-0.3531710721410235</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.6583887200007</v>
+        <v>28.65838872010347</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.99656109421842</v>
+        <v>43.99656109427299</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>50.23665408869563</v>
+        <v>50.23665408866698</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-4.888409253456231</v>
+        <v>-4.888409253452252</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.12047569760655</v>
+        <v>24.12047569767272</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.45724045027596</v>
+        <v>39.45724045035293</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>45.69571509731379</v>
+        <v>45.69571509731789</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-0.2467363698153093</v>
+        <v>-0.246736369843731</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.76503730859061</v>
+        <v>28.7650373086163</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.01636788262321431</v>
+        <v>-0.01636788264629274</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.99273280094174</v>
+        <v>28.99273280103462</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.32994034203689</v>
+        <v>44.32994034202427</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>50.56842364178927</v>
+        <v>50.56842364178017</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4.625924470680687</v>
+        <v>4.625924470713542</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.63791389080923</v>
+        <v>33.63791389077421</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2.86880378381268</v>
+        <v>2.868803783713318</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.87789163171801</v>
+        <v>31.87789163170051</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.21520134616715</v>
+        <v>47.21520134616726</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>53.45368453570582</v>
+        <v>53.4536845356907</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7.51139722576211</v>
+        <v>7.511397225790304</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.52337380478043</v>
+        <v>36.52337380484103</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2.665717796066744</v>
+        <v>-2.665717796019905</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.34331222923647</v>
+        <v>26.34331222929139</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.6802043975152</v>
+        <v>41.68020439754441</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.9187157388313</v>
+        <v>47.91871573883948</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1.976252309771283</v>
+        <v>1.976252309810846</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.98817106978011</v>
+        <v>30.98817106981694</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.10250483793739</v>
+        <v>44.10250483788793</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.34256116525917</v>
+        <v>50.34256116522211</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>8.051053036103966</v>
+        <v>8.051053036159217</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>37.06271776086562</v>
+        <v>37.06271776084391</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>52.40093714694429</v>
+        <v>52.40093714692053</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.64103454512527</v>
+        <v>58.64103454506331</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.97582424206162</v>
+        <v>48.97582424207731</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>55.21588922904694</v>
+        <v>55.2158892290865</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.92378166651584</v>
+        <v>12.92378166649969</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.93566212413039</v>
+        <v>41.93566212415494</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>57.27432433432166</v>
+        <v>57.27432433434929</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>63.5144303900159</v>
+        <v>63.5144303900483</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>51.86138633424919</v>
+        <v>51.86138633424612</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.80927927052956</v>
+        <v>15.80927927054434</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.82114688426971</v>
+        <v>44.82114688426766</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>60.15991126992169</v>
+        <v>60.15991126989907</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>66.40001721414281</v>
+        <v>66.40001721406993</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.32576601814215</v>
+        <v>46.32576601815295</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.56585904794379</v>
+        <v>52.56585904797483</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>10.27414499214906</v>
+        <v>10.27414499211109</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.28595479393614</v>
+        <v>39.28595479390397</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.62430160280537</v>
+        <v>54.62430160279048</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>60.86443570263846</v>
+        <v>60.86443570273907</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-4.762477747467116</v>
+        <v>-4.762477747496106</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.24634229829071</v>
+        <v>24.24634229826422</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.58271177099478</v>
+        <v>39.58271177106253</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>45.82088731358438</v>
+        <v>45.8208873136103</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-0.1206466413661218</v>
+        <v>-0.1206466414256937</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.89106210556118</v>
+        <v>28.89106210549103</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.1094057687102605</v>
+        <v>0.1094057686473917</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.11844154600199</v>
+        <v>29.11844154594856</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>44.45525379256578</v>
+        <v>44.45525379256317</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.69343798683515</v>
+        <v>50.69343798684481</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.751856332548144</v>
+        <v>4.751856332484024</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.76378082035531</v>
+        <v>33.76378082026663</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2.994492618714119</v>
+        <v>2.994492618722077</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.00351556074561</v>
+        <v>32.0035155606849</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>47.34042997718275</v>
+        <v>47.34042997714455</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>53.57861406131845</v>
+        <v>53.57861406133152</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>7.637244266469637</v>
+        <v>7.63724426642257</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.6491559128245</v>
+        <v>36.64915591271001</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-2.53986894444715</v>
+        <v>-2.539868944435895</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.46909617555293</v>
+        <v>26.46909617560125</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.80559305819675</v>
+        <v>41.80559305813786</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.04380529294697</v>
+        <v>48.04380529296118</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2.102259379187288</v>
+        <v>2.102259379150681</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.11411320730424</v>
+        <v>31.11411320732243</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.22813438715168</v>
+        <v>44.22813438715464</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.46789154859637</v>
+        <v>50.46789154862627</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>8.177148345017443</v>
+        <v>8.177148344987998</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.1887481294536</v>
+        <v>37.18874812943746</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.52657225119601</v>
+        <v>52.52657225116782</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.76637049490837</v>
+        <v>58.76637049492338</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>49.10129591002574</v>
+        <v>49.10129591006257</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>55.34106173060532</v>
+        <v>55.34106173065284</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.04971911102014</v>
+        <v>13.04971911099126</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>57.3998015591671</v>
+        <v>57.39980155921371</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>63.63960845988045</v>
+        <v>63.63960845988704</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>51.9867731773257</v>
+        <v>51.98677317728637</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>58.2265388866136</v>
+        <v>58.22653888659723</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.93513189519986</v>
+        <v>15.93513189516894</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>44.94693456786054</v>
+        <v>44.94693456783985</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>60.28530367114577</v>
+        <v>60.28530367111337</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>66.52511045996648</v>
+        <v>66.52511046003458</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.45131290326147</v>
+        <v>46.45131290323293</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>52.69110676557689</v>
+        <v>52.69110676556211</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.40015764199468</v>
+        <v>10.40015764197695</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.41190250340226</v>
+        <v>39.41190250343375</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>54.749854042427</v>
+        <v>54.74985404240574</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.98968898620599</v>
+        <v>60.9896889862393</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-13.03427073701509</v>
+        <v>-13.03427073703681</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.97428187488158</v>
+        <v>15.97428187495332</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.31045748092102</v>
+        <v>31.31045748093784</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.54882647235338</v>
+        <v>37.5488264723793</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-8.39299630483417</v>
+        <v>-8.392996304813707</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.61844506074983</v>
+        <v>20.61844506073062</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-8.162329857915367</v>
+        <v>-8.162329857894676</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.84643848611536</v>
+        <v>20.84643848613469</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.18305687003449</v>
+        <v>36.18305687005007</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.42143451564216</v>
+        <v>42.42143451569946</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-3.520435954395381</v>
+        <v>-3.520435954412207</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.49122115217411</v>
+        <v>25.49122115217638</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-5.277185035664431</v>
+        <v>-5.277185035645672</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.73157047415039</v>
+        <v>23.73157047411151</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.068291029067</v>
+        <v>39.06829102906154</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.3066685652196</v>
+        <v>45.30666856514559</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-0.6349900407248441</v>
+        <v>-0.6349900406956266</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.37665422599646</v>
+        <v>28.37665422601295</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-10.81165935085555</v>
+        <v>-10.81165935084793</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>18.19703833522881</v>
+        <v>18.19703833519709</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>33.53334135005476</v>
+        <v>33.53334134996676</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>39.77174703618341</v>
+        <v>39.77174703619762</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-6.1700876955354</v>
+        <v>-6.170087695534946</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.84149875088208</v>
+        <v>22.84149875086753</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.95532338622509</v>
+        <v>35.95532338623532</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.19527404636752</v>
+        <v>42.19527404639321</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-0.09446800411062384</v>
+        <v>-0.09446800411414813</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.91686443912768</v>
+        <v>28.91686443915337</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.25449461752392</v>
+        <v>44.2544946175578</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.4944863566745</v>
+        <v>50.49448635661675</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.82854228935635</v>
+        <v>40.82854228941854</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.06850161065991</v>
+        <v>47.06850161067833</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>4.778160144437905</v>
+        <v>4.77816014435264</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.78970832019634</v>
+        <v>33.78970832021112</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>49.12778131215164</v>
+        <v>49.12778131214732</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>55.36778171052215</v>
+        <v>55.36778171053966</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>43.7140775396394</v>
+        <v>43.71407753960177</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>49.95403675000769</v>
+        <v>49.95403675002588</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>7.663630909050383</v>
+        <v>7.663630909048564</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.67516624189166</v>
+        <v>36.67516624190007</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>52.01334140752802</v>
+        <v>52.01334140754655</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>58.25334169466073</v>
+        <v>58.25334169464152</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.1785044891197</v>
+        <v>38.17850448916757</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.41849185211727</v>
+        <v>44.41849185216059</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.128543886123751</v>
+        <v>2.12854388609874</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.1400214060421</v>
+        <v>31.14002140603721</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.47777900088063</v>
+        <v>46.47777900084482</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.7178074422912</v>
+        <v>52.71780744228813</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-8.17212560596947</v>
+        <v>-8.17212560594912</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.83697643010755</v>
+        <v>20.8369764301279</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.17377262809505</v>
+        <v>36.17377262794237</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.41226345133744</v>
+        <v>42.4122634512466</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-3.530617323572798</v>
+        <v>-3.53061732359167</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.48137346916617</v>
+        <v>25.48137346916015</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-3.300064299597167</v>
+        <v>-3.30006429958614</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.70925347126884</v>
+        <v>25.70925347133375</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>41.04649245949254</v>
+        <v>41.0464924595221</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.2849919356856</v>
+        <v>47.28499193571879</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.342063457489033</v>
+        <v>1.342063457561679</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.35426999445049</v>
+        <v>30.35426999444265</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-0.4148650191721543</v>
+        <v>-0.4148650192231997</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.59443991595818</v>
+        <v>28.59443991595306</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>43.93178107823105</v>
+        <v>43.93178107828915</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>50.17028044455078</v>
+        <v>50.17028044451634</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>4.227563830216994</v>
+        <v>4.227563830223019</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.23975752572979</v>
+        <v>33.23975752584597</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-5.949430121907241</v>
+        <v>-5.949430121884163</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.05981699009563</v>
+        <v>23.05981699005777</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.39674060311911</v>
+        <v>38.3967406031439</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.63526812083315</v>
+        <v>44.63526812085634</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-1.307624615358847</v>
+        <v>-1.307624615368397</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.70451126092162</v>
+        <v>27.70451126101962</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.81887244592413</v>
+        <v>40.8188724460028</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>47.058944959057</v>
+        <v>47.05894495907178</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.767461721554653</v>
+        <v>4.767461721486669</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.7793435626797</v>
+        <v>33.77934356268561</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>49.11759441083252</v>
+        <v>49.11759441087709</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>55.3577079976197</v>
+        <v>55.35770799763698</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.69221179611129</v>
+        <v>45.69221179618951</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.93229296907687</v>
+        <v>51.93229296906539</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.640210295073828</v>
+        <v>9.640210295077125</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.65230787196693</v>
+        <v>38.65230787197886</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>53.99100154630487</v>
+        <v>53.99100154631601</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.23112379077743</v>
+        <v>60.23112379078971</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.57780150623587</v>
+        <v>48.57780150623326</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>54.8178825681194</v>
+        <v>54.81788256813304</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.52573551719145</v>
+        <v>12.52573551711517</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.537820249669</v>
+        <v>41.53782024970504</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>56.87661610045048</v>
+        <v>56.87661610046514</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>63.11673823327438</v>
+        <v>63.11673823331087</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.04213765692403</v>
+        <v>43.04213765694801</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>49.28224687283212</v>
+        <v>49.28224687282439</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.990557708248119</v>
+        <v>6.990557708207987</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.00258462826669</v>
+        <v>36.00258462829284</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>51.3409628991413</v>
+        <v>51.34096289916313</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>57.58111318797826</v>
+        <v>57.58111318794097</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-0.7066437310032114</v>
+        <v>-0.7066437309736529</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.30251683551076</v>
+        <v>28.30251683551985</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>43.63901906917529</v>
+        <v>43.63901906914926</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>49.87731830202775</v>
+        <v>49.87731830200865</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.93460545275498</v>
+        <v>3.934605452682334</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.94665476144401</v>
+        <v>32.94665476144128</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>4.165321022107108</v>
+        <v>4.165321022050378</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.17469732314994</v>
+        <v>33.17469732316972</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>48.5116423356471</v>
+        <v>48.51164233560606</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.74995022108619</v>
+        <v>54.74995022115827</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.807189670436131</v>
+        <v>8.807189670527535</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.81945472220509</v>
+        <v>37.81945472219452</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>7.050428661227286</v>
+        <v>7.05042866123172</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.05979212700659</v>
+        <v>36.05979212702273</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.39683930979932</v>
+        <v>51.39683930980546</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>57.63514708504108</v>
+        <v>57.63514708503858</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.69259839935405</v>
+        <v>11.6925983994425</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.70485061011478</v>
+        <v>40.70485061013717</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1.515995912851807</v>
+        <v>1.515995912864085</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.52530155531333</v>
+        <v>30.52530155528468</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>45.86193119951538</v>
+        <v>45.86193119947116</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.10026712553299</v>
+        <v>52.10026712544841</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.157542317928986</v>
+        <v>6.157542317956157</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.16973670907926</v>
+        <v>35.1697367090663</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>48.28385976479713</v>
+        <v>48.28385976479167</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>54.52374063223176</v>
+        <v>54.52374063220425</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.23220319861942</v>
+        <v>12.23220319871798</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>41.24414355162033</v>
+        <v>41.24414355168501</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>56.5821003897416</v>
+        <v>56.58210038971977</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>62.82202233376786</v>
+        <v>62.82202233378105</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.15710253943992</v>
+        <v>53.1571025393326</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>59.39699206610551</v>
+        <v>59.39699206597386</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.1048552084131</v>
+        <v>17.10485520841037</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.11701129622004</v>
+        <v>46.11701129626177</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.45541094878111</v>
+        <v>61.45541094878384</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>67.69534155027516</v>
+        <v>67.69534155033701</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>56.04260060264365</v>
+        <v>56.04260060259828</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>62.28249001811692</v>
+        <v>62.2824900180952</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.99028878846714</v>
+        <v>19.9902887884386</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>49.00243203238649</v>
+        <v>49.00243203238774</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>64.34093385830654</v>
+        <v>64.34093385828858</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>70.58086434824993</v>
+        <v>70.58086434824584</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>50.50706912799588</v>
+        <v>50.50706912792903</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>56.7469866969529</v>
+        <v>56.74698669694267</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.45524334143825</v>
+        <v>14.45524334146701</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>43.4673287729649</v>
+        <v>43.46732877296468</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>58.80541302892864</v>
+        <v>58.80541302902823</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>65.04537167367501</v>
+        <v>65.04537167371548</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-16.29135774982971</v>
+        <v>-16.29135774988315</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.71669673749155</v>
+        <v>12.71669673752167</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.05206953690181</v>
+        <v>28.05206953688953</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.29046838998745</v>
+        <v>34.29046839005055</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-11.65006339251072</v>
+        <v>-11.65006339251515</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.36087982130546</v>
+        <v>17.36087982131023</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-11.41951775774253</v>
+        <v>-11.41951775782324</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.58875245978841</v>
+        <v>17.58875245969735</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.92456802344095</v>
+        <v>32.92456802342072</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.16297553172861</v>
+        <v>39.16297553171439</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-6.777603936727857</v>
+        <v>-6.777603936746388</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.23355501627493</v>
+        <v>22.23355501630915</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-8.534420302814894</v>
+        <v>-8.534420302922328</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.47383708113871</v>
+        <v>20.47383708106652</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.80975481452681</v>
+        <v>35.80975481450601</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.04816221317226</v>
+        <v>42.04816221315419</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-3.892205393415381</v>
+        <v>-3.892205393443803</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.1189407198154</v>
+        <v>25.11894071982699</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-14.06880077552232</v>
+        <v>-14.06880077555824</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>14.93939878381669</v>
+        <v>14.93939878379179</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.274898987638</v>
+        <v>30.27489898763265</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.51333453573586</v>
+        <v>36.51333453572882</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-9.427209199322235</v>
+        <v>-9.427209199404885</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>19.58387909311746</v>
+        <v>19.58387909310598</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.69695531409248</v>
+        <v>32.69695531403779</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>38.93693581341343</v>
+        <v>38.93693581338069</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-3.351490419119543</v>
+        <v>-3.351490419134663</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.65934388162243</v>
+        <v>25.65934388163016</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>40.9961712259837</v>
+        <v>40.99617122602201</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>47.23619280556836</v>
+        <v>47.23619280557928</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.57007330725442</v>
+        <v>37.57007330728341</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>43.81006246870875</v>
+        <v>43.81006246872035</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.521036838494936</v>
+        <v>1.521036838483681</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.53208687018169</v>
+        <v>30.53208687013462</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>45.86935701387206</v>
+        <v>45.86935701389912</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>52.10938725360161</v>
+        <v>52.10938725358831</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.45556118552413</v>
+        <v>40.45556118556074</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.69555023615062</v>
+        <v>46.69555023613232</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>4.406460232463317</v>
+        <v>4.406460232446719</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.41749742185819</v>
+        <v>33.417497421801</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.75486973691063</v>
+        <v>48.75486973689245</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.99489986572117</v>
+        <v>54.99489986572208</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.92008199468587</v>
+        <v>34.92008199468474</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.16009919702351</v>
+        <v>41.16009919705319</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-1.128532945190884</v>
+        <v>-1.128532945249773</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.88244643011701</v>
+        <v>27.88244643004766</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.21940118597168</v>
+        <v>43.21940118590813</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>49.45945946836351</v>
+        <v>49.45945946839318</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-10.12443328638749</v>
+        <v>-10.12443328640465</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.88424615590095</v>
+        <v>18.88424615589823</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.22011901257333</v>
+        <v>34.22011901261733</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>40.45840077140731</v>
+        <v>40.45840077139276</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-5.482951414609985</v>
+        <v>-5.482951414576675</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.52861675177617</v>
+        <v>23.52861675174479</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-5.252573749947757</v>
+        <v>-5.252573749874088</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.75632142526042</v>
+        <v>23.75632142527498</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.09263704983023</v>
+        <v>39.09263704985035</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.33092746217126</v>
+        <v>45.3309274621874</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-0.6104724174021356</v>
+        <v>-0.6104724173464291</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.40131149081999</v>
+        <v>28.40131149089378</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-2.367479382745884</v>
+        <v>-2.367479382745429</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.64140295764055</v>
+        <v>26.6414029576119</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.97782075126845</v>
+        <v>41.9778207512954</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>48.21611105400537</v>
+        <v>48.2161110540447</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.27492303578795</v>
+        <v>2.274923035787381</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.28669410316884</v>
+        <v>31.28669410321432</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-7.901848795241833</v>
+        <v>-7.901848795219209</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.10697572109207</v>
+        <v>21.10697572113925</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.44297598456008</v>
+        <v>36.44297598461101</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>42.68129443666028</v>
+        <v>42.68129443669632</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-3.260069705680777</v>
+        <v>-3.260069705665771</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.75164354166652</v>
+        <v>25.75164354166277</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.8651923885953</v>
+        <v>38.86519238860667</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>45.10505577370368</v>
+        <v>45.10505577370607</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>2.815178926827528</v>
+        <v>2.815178926878119</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.82663814704809</v>
+        <v>31.82663814700216</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>47.1639656387152</v>
+        <v>47.16396563870758</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>53.40387010742604</v>
+        <v>53.40387010746515</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.73832993028937</v>
+        <v>43.7383299303187</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>49.97820197575398</v>
+        <v>49.97820197578183</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.687725722191956</v>
+        <v>7.687725722137046</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.69940067577575</v>
+        <v>36.69940067580315</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>52.03717097096883</v>
+        <v>52.03717097100237</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>58.27708409830821</v>
+        <v>58.27708409831287</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>46.62381471674924</v>
+        <v>46.62381471674583</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>52.86368665141272</v>
+        <v>52.8636866514159</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>10.57314602624758</v>
+        <v>10.57314602626612</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.58480813620049</v>
+        <v>39.58480813619583</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>54.92268060340366</v>
+        <v>54.9226806033957</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>61.16259361933449</v>
+        <v>61.16259361932698</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.08834659004795</v>
+        <v>41.08834659018574</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.32824667692155</v>
+        <v>47.32824667689165</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.038163914362329</v>
+        <v>5.038163914424743</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.04976821139128</v>
+        <v>34.049768211364</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>49.38722311775525</v>
+        <v>49.38722311775025</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>55.62716428766687</v>
+        <v>55.62716428762549</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-14.88437412235207</v>
+        <v>-14.88437412235253</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.12400573643784</v>
+        <v>14.12400573642579</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.45971513860077</v>
+        <v>29.45971513859634</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.69798389540081</v>
+        <v>35.6979838953858</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-10.24311551068369</v>
+        <v>-10.24311551072371</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.76815308767091</v>
+        <v>18.76815308762816</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-10.01252646189225</v>
+        <v>-10.01252646188225</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.99606912824102</v>
+        <v>18.99606912827785</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.33222129791211</v>
+        <v>34.33222129790802</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.57049870891576</v>
+        <v>40.57049870881333</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-5.370648386292302</v>
+        <v>-5.370648386306172</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.64083595318353</v>
+        <v>23.64083595321036</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-7.12742387518135</v>
+        <v>-7.127423875235124</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.88115888086425</v>
+        <v>21.88115888089472</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>37.21741322043449</v>
+        <v>37.21741322036924</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>43.45569052194487</v>
+        <v>43.4556905219077</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2.485244710271601</v>
+        <v>-2.485244710306276</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.5262267889802</v>
+        <v>26.52622678900521</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-12.66180864070104</v>
+        <v>-12.66180864069786</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.34671629122711</v>
+        <v>16.3467162911988</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>31.68255309886918</v>
+        <v>31.68255309887805</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>37.92085854976467</v>
+        <v>37.92085854974626</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-8.020252809900896</v>
+        <v>-8.02025280989271</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.9911608691378</v>
+        <v>20.99116086924148</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.10456522493992</v>
+        <v>34.10456522494253</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.34441561532044</v>
+        <v>40.34441561531305</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1.94451420316004</v>
+        <v>-1.944514203179139</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.06664547503665</v>
+        <v>27.0666454750836</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>42.40380946794672</v>
+        <v>42.40380946794012</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>48.64370094262661</v>
+        <v>48.64370094262331</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>38.97769089181197</v>
+        <v>38.97769089181334</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>45.21754994352052</v>
+        <v>45.21754994358987</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.928020723245552</v>
+        <v>2.928020723223497</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.93939613377491</v>
+        <v>31.93939613376365</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>47.27700292965001</v>
+        <v>47.2770029296001</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>53.51690306356996</v>
+        <v>53.51690306354085</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>41.86318390237996</v>
+        <v>41.8631839023504</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>48.10304284330375</v>
+        <v>48.10304284328102</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>5.813449250982515</v>
+        <v>5.813449250960574</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.82481181824694</v>
+        <v>34.82481181829606</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>50.16252078632415</v>
+        <v>50.16252078636724</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>56.40242080903336</v>
+        <v>56.40242080900482</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.32770041621025</v>
+        <v>36.32770041620297</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>42.56758750902709</v>
+        <v>42.56758750914351</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>0.2784517795370931</v>
+        <v>0.2784517795035555</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.28975653389848</v>
+        <v>29.28975653395555</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>44.62704793969517</v>
+        <v>44.6270479397394</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>50.86697611610892</v>
+        <v>50.86697611622522</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-18.46138448088588</v>
+        <v>-18.46138448087508</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.54631523570613</v>
+        <v>10.54631523576138</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.88150123872249</v>
+        <v>25.88150123873432</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.11967440947883</v>
+        <v>32.11967440951567</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-13.81993783951388</v>
+        <v>-13.81993783953094</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.19065055967231</v>
+        <v>15.19065055967867</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-13.58966821414803</v>
+        <v>-13.58966821418748</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.4182472293498</v>
+        <v>15.41824722930626</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.75387598823927</v>
+        <v>30.7538759882387</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.99205781366534</v>
+        <v>36.99205781364851</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-8.947602121405609</v>
+        <v>-8.947602121408337</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.06320201408205</v>
+        <v>20.06320201409478</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-10.7046212866923</v>
+        <v>-10.70462128671288</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.30328132324571</v>
+        <v>18.30328132320331</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.63901224907393</v>
+        <v>33.63901224903698</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>39.87719396495852</v>
+        <v>39.87719396492669</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-6.062254112806542</v>
+        <v>-6.062254112875209</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.94853718324676</v>
+        <v>22.94853718325426</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-16.23887853799651</v>
+        <v>-16.23887853805961</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>12.76896624818967</v>
+        <v>12.76896624823787</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.10427965336358</v>
+        <v>28.10427965335141</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.34248951741911</v>
+        <v>34.34248951738375</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-11.59713468387058</v>
+        <v>-11.59713468386967</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.41359879257773</v>
+        <v>17.41359879263059</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.52653928970126</v>
+        <v>30.52653928971411</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.76629407003209</v>
+        <v>36.76629407007222</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-5.521289433002309</v>
+        <v>-5.521289433014815</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.48919005009516</v>
+        <v>23.48919005010823</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.82583063271848</v>
+        <v>38.82583063267005</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>45.06562649870166</v>
+        <v>45.06562649870973</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.39953353395295</v>
+        <v>35.39953353398035</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>41.63929697572094</v>
+        <v>41.63929697577869</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-0.6488859114814858</v>
+        <v>-0.6488859115415124</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.36180929899406</v>
+        <v>28.36180929895609</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.6988926728696</v>
+        <v>43.6988926728264</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>49.93869719854167</v>
+        <v>49.938697198517</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.28497087513706</v>
+        <v>38.28497087513399</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>44.5247342063097</v>
+        <v>44.52473420628344</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.236486947611027</v>
+        <v>2.23648694747051</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.24716931611233</v>
+        <v>31.24716931608914</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.58435486008246</v>
+        <v>46.58435486000606</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>52.8241592743628</v>
+        <v>52.8241592743213</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.74961492918699</v>
+        <v>32.74961492923099</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.98940641114628</v>
+        <v>38.98940641117902</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-3.298382996867232</v>
+        <v>-3.298382996868824</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.71224155889782</v>
+        <v>25.71224155888497</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.0490095514884</v>
+        <v>41.0490095515167</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>47.28884211865962</v>
+        <v>47.28884211862847</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-12.34284154519939</v>
+        <v>-12.34284154525908</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>16.66613291712356</v>
+        <v>16.66613291714755</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.00286800436488</v>
+        <v>32.00286800432134</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>38.24141593328075</v>
+        <v>38.24141593319719</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-7.701789207303293</v>
+        <v>-7.701789207305794</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.31007403033534</v>
+        <v>21.31007403022382</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-7.470760155843479</v>
+        <v>-7.470760155883383</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.53843004114658</v>
+        <v>21.53843004120058</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.87560792093059</v>
+        <v>36.87560792093468</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>43.1141645036375</v>
+        <v>43.11416450363431</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-2.829088338826793</v>
+        <v>-2.829088338794278</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.1829906429361</v>
+        <v>26.18299064297919</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-4.585535552182861</v>
+        <v>-4.585535552244821</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.42364180975183</v>
+        <v>24.42364180964485</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.7609218642544</v>
+        <v>39.76092186427248</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.99947833727363</v>
+        <v>45.99947833729739</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>0.0564373614731295</v>
+        <v>0.05643736143197486</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.06850350243504</v>
+        <v>29.06850350242026</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-10.12014772339698</v>
+        <v>-10.12014772333389</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.88897181429338</v>
+        <v>18.8889718143101</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.22583431713095</v>
+        <v>34.22583431713208</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.46441894137338</v>
+        <v>40.46441894141476</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-5.478798159359187</v>
+        <v>-5.478798159441496</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.5332101612898</v>
+        <v>23.53321016129685</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.64751185777909</v>
+        <v>36.64751185773407</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.88764149422236</v>
+        <v>42.88764149426261</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.5966111363253077</v>
+        <v>0.5966111363082547</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.60836543872456</v>
+        <v>29.6083654387523</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.94655514382971</v>
+        <v>44.94655514374331</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.18672585367979</v>
+        <v>51.18672585369707</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.52087129693253</v>
+        <v>41.52087129697436</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.7610095942435</v>
+        <v>47.76100959427397</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>5.469379800298682</v>
+        <v>5.469379800269238</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.48134983797486</v>
+        <v>34.48134983803045</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.81998237061107</v>
+        <v>49.81998237055673</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>56.06016173939811</v>
+        <v>56.06016173943949</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.40648633614985</v>
+        <v>44.40648633609267</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.6466245225625</v>
+        <v>50.64662452258706</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.354930349802842</v>
+        <v>8.354930349755662</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.36688754380198</v>
+        <v>37.36688754381619</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.70562225362023</v>
+        <v>52.70562225359488</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>58.94580151117334</v>
+        <v>58.94580151115345</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.87077540797254</v>
+        <v>38.87077540801654</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.11094174819864</v>
+        <v>45.11094174822945</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.819705465144537</v>
+        <v>2.819705465148061</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.83160484568425</v>
+        <v>31.83160484572859</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.16992197327802</v>
+        <v>47.16992197320526</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.41012938645152</v>
+        <v>53.41012938637967</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-13.06616285577438</v>
+        <v>-13.06616285570912</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>15.94217865720107</v>
+        <v>15.94217865727747</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.27773137116431</v>
+        <v>31.27773137115169</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.51606276138837</v>
+        <v>37.51606276139678</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-8.425036992404713</v>
+        <v>-8.425036992468605</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.58619324320905</v>
+        <v>20.58619324329671</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-8.194319465251894</v>
+        <v>-8.194319465281794</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.8142377788691</v>
+        <v>20.81423777890923</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.15023325732768</v>
+        <v>36.15023325735395</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.38857330194578</v>
+        <v>42.38857330194112</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-3.552574140818294</v>
+        <v>-3.552574140774524</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.4588718352589</v>
+        <v>25.45887183526834</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-5.309230142038743</v>
+        <v>-5.309230142053067</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.6993142677622</v>
+        <v>23.6993142677439</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.03541191562165</v>
+        <v>39.03541191563041</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.27375185076035</v>
+        <v>45.27375185083095</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-0.6671837302746297</v>
+        <v>-0.6671837301880004</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.34424940557967</v>
+        <v>28.34424940557444</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-10.84359732149055</v>
+        <v>-10.84359732142006</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.1648892640538</v>
+        <v>18.16488926406096</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.50056938267865</v>
+        <v>33.50056938271821</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.73893746716051</v>
+        <v>39.73893746715039</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-6.202174241280588</v>
+        <v>-6.202174241242162</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>22.80920107440234</v>
+        <v>22.8092010743779</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.92244868717837</v>
+        <v>35.92244868726318</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.16236170576913</v>
+        <v>42.16236170581392</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-0.1267002697258448</v>
+        <v>-0.1267002696743447</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.88442103822474</v>
+        <v>28.88442103825862</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.2214283329434</v>
+        <v>44.22142833303162</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.46138243408957</v>
+        <v>50.46138243413448</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.79557007862964</v>
+        <v>40.7955700786725</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.03549175865096</v>
+        <v>47.03549175866335</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>4.745830382222678</v>
+        <v>4.745830382204829</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.75716742202083</v>
+        <v>33.75716742202685</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>49.09461751729243</v>
+        <v>49.09461751731244</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>55.33458027771242</v>
+        <v>55.33458027778859</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.68104982329983</v>
+        <v>43.68104982332211</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.92097139264349</v>
+        <v>49.92097139266123</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.631245644008757</v>
+        <v>7.631245644006938</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.64256984078061</v>
+        <v>36.64256984073695</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>51.98012210768361</v>
+        <v>51.98012210765962</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.22008475701701</v>
+        <v>58.22008475695664</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>38.14558392865622</v>
+        <v>38.14558392866759</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.38553364961133</v>
+        <v>44.38553364960065</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2.096265761533417</v>
+        <v>2.096265761593443</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.10753214523625</v>
+        <v>31.10753214527263</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.4446668527341</v>
+        <v>46.44466685278935</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.68465765605079</v>
+        <v>52.68465765597803</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1.330117659086611</v>
+        <v>-1.330117659111053</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.67925922047</v>
+        <v>27.67925922054526</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>43.01625982660069</v>
+        <v>43.01625982656999</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>49.25484180364204</v>
+        <v>49.25484180368592</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>3.311156114937447</v>
+        <v>3.311156115016004</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.32342176634286</v>
+        <v>32.32342176637754</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3.54200661385876</v>
+        <v>3.542006613823972</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.55159922993887</v>
+        <v>32.55159922992796</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>47.88904263059699</v>
+        <v>47.8890426305904</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>54.12763326086595</v>
+        <v>54.1276332608489</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>8.183899866056962</v>
+        <v>8.183899866064465</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.19638126333321</v>
+        <v>37.19638126339176</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>6.427207572757951</v>
+        <v>6.427207572662795</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.43678735315309</v>
+        <v>35.43678735313661</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50.77433292800511</v>
+        <v>50.7743329279311</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>57.01292344802501</v>
+        <v>57.01292344798033</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.06940191954409</v>
+        <v>11.06940191958729</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>40.08187047527504</v>
+        <v>40.08187047528072</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.8926088506718344</v>
+        <v>0.8926088506866137</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.90213080742792</v>
+        <v>29.90213080744748</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>45.23925882987915</v>
+        <v>45.23925882986198</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.47787750189646</v>
+        <v>51.47787750181426</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.534179851027787</v>
+        <v>5.534179851055185</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.546590586763</v>
+        <v>34.54659058681951</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>47.66112513396952</v>
+        <v>47.66112513399715</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>53.90128880844868</v>
+        <v>53.9012888085053</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>11.60882944396231</v>
+        <v>11.60882944395765</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.62098614008876</v>
+        <v>40.62098614007148</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>55.9594413658494</v>
+        <v>55.95944136593228</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>62.1996461097353</v>
+        <v>62.1996461097054</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.53452745920988</v>
+        <v>52.53452745923717</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>58.77469979394739</v>
+        <v>58.77469979396331</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.48164098532295</v>
+        <v>16.48164098529226</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.49401341820528</v>
+        <v>45.49401341817675</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.83291147332837</v>
+        <v>60.83291147335883</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>67.07312487546876</v>
+        <v>67.07312487544671</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>55.42011885067389</v>
+        <v>55.42011885071459</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.6602910742666</v>
+        <v>61.66029107426159</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.3671678885773</v>
+        <v>19.36716788857389</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>48.37952747705556</v>
+        <v>48.3795274770011</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>63.71852770944209</v>
+        <v>63.71852770941628</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>69.95874099995156</v>
+        <v>69.9587409999835</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>49.88442137479451</v>
+        <v>49.88442137481725</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>56.12462175262108</v>
+        <v>56.12462175255878</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>13.83195645746044</v>
+        <v>13.83195645756241</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.8442582330684</v>
+        <v>42.84425823306874</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>58.18284088267815</v>
+        <v>58.18284088267463</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>64.42308232933142</v>
+        <v>64.42308232930721</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-7.932184768717818</v>
+        <v>-7.932184768713611</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.0762168248212</v>
+        <v>21.07621682492341</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.41284423960174</v>
+        <v>36.41284423963482</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>42.65125137128003</v>
+        <v>42.65125137128332</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-3.290994538525794</v>
+        <v>-3.290994538458492</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.72029574907408</v>
+        <v>25.72029574908329</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-3.060192161480401</v>
+        <v>-3.060192161407755</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.94842516163938</v>
+        <v>25.94842516167735</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.28549536161184</v>
+        <v>41.28549536168266</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.52391114620475</v>
+        <v>47.52391114622658</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1.581617531505984</v>
+        <v>1.581617531551572</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.59312355787536</v>
+        <v>30.59312355793777</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-0.1750367969543021</v>
+        <v>-0.1750367969195139</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.83356769154541</v>
+        <v>28.83356769159714</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.17074006441938</v>
+        <v>44.17074006441347</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>50.40915573910964</v>
+        <v>50.40915573911725</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.467073983796084</v>
+        <v>4.467073983731055</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.47856716963993</v>
+        <v>33.47856716963743</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-5.709517858108867</v>
+        <v>-5.70951785810648</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.29902880787331</v>
+        <v>23.29902880787616</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.63578363667939</v>
+        <v>38.63578363665904</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.87422746257671</v>
+        <v>44.87422746255295</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1.068030409551668</v>
+        <v>-1.068030409565196</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.94340495769593</v>
+        <v>27.94340495768104</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.05762591347816</v>
+        <v>41.05762591349283</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>47.29761471352954</v>
+        <v>47.29761471357524</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.006843723743899</v>
+        <v>5.006843723785849</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.01802506690372</v>
+        <v>34.01802506683073</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>49.35610708551003</v>
+        <v>49.35610708551617</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>55.59613695475055</v>
+        <v>55.59613695474737</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.93089654165586</v>
+        <v>45.9308965417169</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.17089400163634</v>
+        <v>52.17089400175367</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>9.879523583734183</v>
+        <v>9.879523583760786</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.89092065710777</v>
+        <v>38.89092065719497</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>54.22944549669587</v>
+        <v>54.22944549666018</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>60.46948402380822</v>
+        <v>60.46948402384301</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>48.81644233119739</v>
+        <v>48.81644233126413</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.05643967998761</v>
+        <v>55.05643968006048</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.76500488404299</v>
+        <v>12.76500488404504</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>41.77638911401171</v>
+        <v>41.77638911401046</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>57.11501612926436</v>
+        <v>57.11501612926334</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>63.35505454492314</v>
+        <v>63.35505454489574</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.28086254087403</v>
+        <v>43.28086254086016</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>49.52088804334285</v>
+        <v>49.52088804337309</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.22991112826044</v>
+        <v>7.229911128223719</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.2412375469906</v>
+        <v>36.24123754694024</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>51.57944698768854</v>
+        <v>51.57944698767967</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>57.8195135587742</v>
+        <v>57.81951355877693</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-9.844056868014192</v>
+        <v>-9.844056868010895</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.16530718484326</v>
+        <v>19.16530718482143</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.50170870155701</v>
+        <v>34.50170870154268</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>40.74028167761658</v>
+        <v>40.74028167758088</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-5.202731216793424</v>
+        <v>-5.202731216826621</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.8095216408171</v>
+        <v>23.80952164073979</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-4.971997554911624</v>
+        <v>-4.971997554944821</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.03758223585756</v>
+        <v>24.03758223583527</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>39.37442653823264</v>
+        <v>39.3744265382846</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>45.6130081684508</v>
+        <v>45.61300816856551</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-0.3300524217808487</v>
+        <v>-0.3300524217615219</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.68241618256953</v>
+        <v>28.6824161825768</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-2.086796707899154</v>
+        <v>-2.086796707934283</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.92277024756909</v>
+        <v>26.92277024762627</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.25971672410692</v>
+        <v>42.25971672405588</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.4982982446182</v>
+        <v>48.49829824465139</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>2.555449522304301</v>
+        <v>2.555449522267466</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.56790528589791</v>
+        <v>31.56790528588324</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-7.621382095596388</v>
+        <v>-7.621382095631176</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.38812703471793</v>
+        <v>21.38812703473657</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.72465596337493</v>
+        <v>36.7246559634727</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.96326563459134</v>
+        <v>42.96326563468502</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-2.979759217493708</v>
+        <v>-2.979759217526905</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.03263872466898</v>
+        <v>26.03263872468649</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.14662591932718</v>
+        <v>39.14662591927693</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.38678058549677</v>
+        <v>45.38678058552462</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>3.095608966729472</v>
+        <v>3.095608966689227</v>
       </c>
     </row>
     <row r="843">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.44560903280974</v>
+        <v>47.44560903273778</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>53.68580477928829</v>
+        <v>53.68580477926658</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.01996328190053</v>
+        <v>44.01996328190315</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>50.26012660917361</v>
+        <v>50.26012660917111</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>7.968355559986165</v>
+        <v>7.968355559973546</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.98071521523816</v>
+        <v>36.98071521523202</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.3190141861116</v>
+        <v>52.31901418610012</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.5592185916782</v>
+        <v>58.55921859167104</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.90555456348643</v>
+        <v>46.90555456348666</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>53.14571778013926</v>
+        <v>53.14571778015882</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.85388235506862</v>
+        <v>10.85388235511739</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.86622916655229</v>
+        <v>39.86622916651227</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.20463031350421</v>
+        <v>55.2046303135299</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.44483460776276</v>
+        <v>61.44483460774684</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.36987042057338</v>
+        <v>41.36987042062692</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.61006179031854</v>
+        <v>47.61006179035185</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.318684247553009</v>
+        <v>5.318684247488434</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.33097324463365</v>
+        <v>34.3309732446382</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>49.66895681450474</v>
+        <v>49.66895681455703</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>55.9091892638432</v>
+        <v>55.90918926386935</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-13.0057991289538</v>
+        <v>-13.00579912896983</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.00247503040289</v>
+        <v>16.00247503036674</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.33875397287154</v>
+        <v>31.33875397293112</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.57717722268599</v>
+        <v>37.57717722275841</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-8.364655593014547</v>
+        <v>-8.364655592979418</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.64650728548459</v>
+        <v>20.64650728551324</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-8.133834104572017</v>
+        <v>-8.133834104527224</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.87465578458792</v>
+        <v>20.87465578460485</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.21137750832754</v>
+        <v>36.2113775082566</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>42.44980941206605</v>
+        <v>42.44980941202455</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-3.492071101483631</v>
+        <v>-3.492071101493181</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.51930751616142</v>
+        <v>25.5193075161505</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-5.2486754768385</v>
+        <v>-5.248675476896594</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.75980157789873</v>
+        <v>23.7598015778661</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.09662547390617</v>
+        <v>39.09662547387559</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.33505726793415</v>
+        <v>45.33505726798656</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-0.6066113840936822</v>
+        <v>-0.6066113841119858</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.40475439351651</v>
+        <v>28.40475439345842</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-10.78316256062014</v>
+        <v>-10.78316256065868</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.22525667117596</v>
+        <v>18.22525667123394</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>33.56166302490097</v>
+        <v>33.56166302494553</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.80012296931996</v>
+        <v>39.80012296936714</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-6.141721804756955</v>
+        <v>-6.141721804750475</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.86958615347858</v>
+        <v>22.86958615351121</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.98348893765576</v>
+        <v>35.98348893773239</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.22349386644437</v>
+        <v>42.22349386647132</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.06636489312226956</v>
+        <v>-0.06636489314080052</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.94468905881816</v>
+        <v>28.94468905887545</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.28242256703614</v>
+        <v>44.28242256703989</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.52246856933114</v>
+        <v>50.52246856936252</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.85673198369473</v>
+        <v>40.85673198378113</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.09674557299066</v>
+        <v>47.09674557299168</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>4.806287393417691</v>
+        <v>4.806287393392225</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.81755707581438</v>
+        <v>33.8175570758353</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.15573340047736</v>
+        <v>49.15573340053784</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.39578806164737</v>
+        <v>55.39578806174241</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>43.74228103803701</v>
+        <v>43.7422810381034</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>49.98229451668358</v>
+        <v>49.98229451666971</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>7.691771959698329</v>
+        <v>7.691771959616702</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.70302879891024</v>
+        <v>36.70302879892502</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>52.0413072985295</v>
+        <v>52.04130729856418</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>58.28136184825117</v>
+        <v>58.2813618482365</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.2066952213731</v>
+        <v>38.20669522142596</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.44673685301252</v>
+        <v>44.44673685306732</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>2.156672174062535</v>
+        <v>2.156672174034568</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.16787120118904</v>
+        <v>31.16787120117995</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>46.50573212819377</v>
+        <v>46.50573212821128</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>52.74581483275649</v>
+        <v>52.74581483282016</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-9.716513301397001</v>
+        <v>-9.716513301358802</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.29173558687906</v>
+        <v>19.29173558690907</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.62827591893377</v>
+        <v>34.62827591897765</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.86668910672843</v>
+        <v>40.86668910672661</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-5.075442310527976</v>
+        <v>-5.075442310469995</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.93569526797394</v>
+        <v>23.9356952680027</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-4.844530315921745</v>
+        <v>-4.844530315929475</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.16393430111573</v>
+        <v>24.16393430111539</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.50091741698482</v>
+        <v>39.50091741699016</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.73933925797014</v>
+        <v>45.73933925795559</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-0.2028398623903485</v>
+        <v>-0.202839862346238</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.80851345341019</v>
+        <v>28.80851345344281</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-1.959374822536276</v>
+        <v>-1.959374822572428</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>27.04907696025073</v>
+        <v>27.04907696025982</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.38616224821529</v>
+        <v>42.38616224825542</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.62458397952919</v>
+        <v>48.62458397949861</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>2.682616718507873</v>
+        <v>2.682616718548232</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.69395719429367</v>
+        <v>31.69395719432551</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-7.493854810023933</v>
+        <v>-7.493854809981869</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.51453915023235</v>
+        <v>21.5145391502012</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.85120689534536</v>
+        <v>36.85120689541721</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.08965677755289</v>
+        <v>43.08965677760587</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-2.852486601172515</v>
+        <v>-2.852486601181838</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.15879605616404</v>
+        <v>26.15879605624237</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.27293833258962</v>
+        <v>39.27293833258337</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>45.51293319173699</v>
+        <v>45.51293319175973</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>3.222504517225573</v>
+        <v>3.222504517352448</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>32.23353315680625</v>
+        <v>32.23353315681705</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>47.57152807571136</v>
+        <v>47.57152807571283</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>53.81156400421237</v>
+        <v>53.81156400416383</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>44.14619933624233</v>
+        <v>44.14619933627542</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>50.38620285567875</v>
+        <v>50.38620285559178</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>8.095174756139343</v>
+        <v>8.095174756074883</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>37.10641912470858</v>
+        <v>37.10641912470471</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.44485686305821</v>
+        <v>52.44485686302444</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>58.68490144975972</v>
+        <v>58.68490144977552</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>47.03174525478717</v>
+        <v>47.03174525479137</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>53.27174866338494</v>
+        <v>53.27174866343223</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>10.98065618503036</v>
+        <v>10.98065618507401</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>39.99188771047132</v>
+        <v>39.99188771043323</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.33042762431019</v>
+        <v>55.33042762434759</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.57047209979505</v>
+        <v>61.57047209980745</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.49616653845176</v>
+        <v>41.49616653846449</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>47.7361981003249</v>
+        <v>47.73619810033286</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>5.445563502814665</v>
+        <v>5.445563502801704</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.45673721684416</v>
+        <v>34.45673721691647</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>49.79485955702962</v>
+        <v>49.79485955702974</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>56.03493218774902</v>
+        <v>56.03493218776642</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-6.21851047698037</v>
+        <v>-6.218510476980939</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>22.79035532732139</v>
+        <v>22.79035532735243</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.12706054989788</v>
+        <v>38.12706054987946</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>44.36546491327836</v>
+        <v>44.36546491332304</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1.577301197077119</v>
+        <v>-1.577301197009589</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>27.43445335787835</v>
+        <v>27.43445335792383</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-1.346491971350517</v>
+        <v>-1.346491971415887</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.66258956560678</v>
+        <v>27.66258956560326</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.99973757476387</v>
+        <v>42.99973757475375</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.23815059128715</v>
+        <v>49.23815059124793</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>3.29533677962236</v>
+        <v>3.295336779665789</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.30730707676487</v>
+        <v>32.30730707677101</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1.538669495710067</v>
+        <v>1.538669495673915</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.54773819857515</v>
+        <v>30.54773819863256</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>45.88498837994219</v>
+        <v>45.88498837989876</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.12340128662886</v>
+        <v>52.12340128665831</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>6.180799339781018</v>
+        <v>6.180799339730427</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.19275679647622</v>
+        <v>35.19275679656387</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-3.995845309782041</v>
+        <v>-3.995845309785565</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.01316556923025</v>
+        <v>25.01316556921741</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.34999820484627</v>
+        <v>40.34999820483081</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>46.58843926271147</v>
+        <v>46.588439262715</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>0.6456611930520495</v>
+        <v>0.64566119302863</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.65756082993626</v>
+        <v>29.65756082997707</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.77186133810763</v>
+        <v>42.7718613381041</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>49.01184737211459</v>
+        <v>49.01184737212937</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>6.720694038293189</v>
+        <v>6.720694038290347</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>35.73233965450954</v>
+        <v>35.73233965443804</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>51.07049948769402</v>
+        <v>51.07049948768902</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>57.31052659523159</v>
+        <v>57.31052659529003</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>47.64515787779972</v>
+        <v>47.64515787782791</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>53.885152571755</v>
+        <v>53.88515257187471</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>11.59339980883688</v>
+        <v>11.59339980891816</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>40.60526115900582</v>
+        <v>40.6052611590214</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>55.9438638136689</v>
+        <v>55.94386381364173</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>62.1838995792718</v>
+        <v>62.18389957933944</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>50.53070977497369</v>
+        <v>50.53070977495595</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>56.77070435774108</v>
+        <v>56.77070435771925</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>14.47888721893067</v>
+        <v>14.47888721891498</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>43.49073572589448</v>
+        <v>43.49073572592336</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>58.82944055585297</v>
+        <v>58.82944055577293</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>65.06947620989042</v>
+        <v>65.06947620984177</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>44.99509622802334</v>
+        <v>44.99509622807791</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>51.23511896438295</v>
+        <v>51.23511896438602</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.94375970694712</v>
+        <v>8.943759707003167</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.9555504013169</v>
+        <v>37.95555040129359</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>53.29383765530027</v>
+        <v>53.29383765524922</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>59.53390146457794</v>
+        <v>59.53390146459579</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-8.292734617712014</v>
+        <v>-8.292734617731909</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>20.7166664736596</v>
+        <v>20.71666647359093</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>36.053179613365</v>
+        <v>36.05317961336512</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>42.29176085897673</v>
+        <v>42.29176085894979</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-3.651412643069236</v>
+        <v>-3.651412643093565</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>25.36087725019804</v>
+        <v>25.36087725021237</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-3.420657357417483</v>
+        <v>-3.420657357446586</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>25.58895947239212</v>
+        <v>25.58895947235256</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>40.92591539944358</v>
+        <v>40.92591539939129</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>47.16450529881713</v>
+        <v>47.1645052987845</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>1.221284099856987</v>
+        <v>1.221284099829134</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>30.2337897407095</v>
+        <v>30.23378974072507</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-0.5354536377641779</v>
+        <v>-0.5354536378822985</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>28.47415035666968</v>
+        <v>28.47415035668071</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>43.81120845734365</v>
+        <v>43.81120845733274</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>50.04979824705136</v>
+        <v>50.0497982470517</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>4.106788915681662</v>
+        <v>4.10678891566927</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.11928171552491</v>
+        <v>33.11928171552866</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-6.070048013222547</v>
+        <v>-6.070048013319521</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>22.93949815592312</v>
+        <v>22.93949815592858</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>38.27613870818989</v>
+        <v>38.2761387081817</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>44.51475664899199</v>
+        <v>44.51475664902689</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-1.428428811026876</v>
+        <v>-1.428428810998909</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.58400616717581</v>
+        <v>27.58400616722334</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>40.69809315265498</v>
+        <v>40.69809315264509</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>46.93825609106553</v>
+        <v>46.93825609111475</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>4.646791540330085</v>
+        <v>4.646791540313714</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>33.65897248986012</v>
+        <v>33.65897248988286</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>48.99694025890081</v>
+        <v>48.99694025892127</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>55.23714427575392</v>
+        <v>55.23714427574369</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>45.57144846466981</v>
+        <v>45.5714484646556</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>51.81162006403015</v>
+        <v>51.81162006403549</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>9.519556079587417</v>
+        <v>9.519556079571274</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.53195276797892</v>
+        <v>38.53195276797221</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>53.87036336033403</v>
+        <v>53.87036336031993</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>60.11057603624791</v>
+        <v>60.110576036252</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>48.45704261898625</v>
+        <v>48.45704261898466</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>54.69721410731411</v>
+        <v>54.69721410739801</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>12.40508574598512</v>
+        <v>12.40508574591804</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.41746959069629</v>
+        <v>41.41746959069833</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>56.75598235976891</v>
+        <v>56.75598235975981</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>62.99619492454208</v>
+        <v>62.99619492454958</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>42.92134948704127</v>
+        <v>42.92134948701853</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>49.16154912894315</v>
+        <v>49.16154912900136</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>6.869878652444825</v>
+        <v>6.869878652484843</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>35.88220468262826</v>
+        <v>35.88220468269874</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>51.22029987284118</v>
+        <v>51.22029987281935</v>
       </c>
     </row>
     <row r="1055">
